--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E89CFBF1-0066-4C51-8A37-2F7C3F503778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7719CCBB-3C02-4237-BBED-61CC5DF25EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-14510" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{68540D6F-E25A-4268-8458-C93AFA6DED9E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{68540D6F-E25A-4268-8458-C93AFA6DED9E}"/>
   </bookViews>
   <sheets>
     <sheet name="时间序列列表" sheetId="1" r:id="rId1"/>
     <sheet name="分类列表" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分类列表!$A$1:$G$300</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">分类列表!$A$1:$G$299</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4021" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4015" uniqueCount="1162">
   <si>
     <t>阿达木单抗</t>
   </si>
@@ -1937,10 +1937,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>疼痛/医美</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Januvia</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2047,10 +2043,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>消化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Xarelto</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2234,10 +2226,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>疼痛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Zetia</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2299,10 +2287,6 @@
   </si>
   <si>
     <t>ED</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>男科</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3041,10 +3025,6 @@
   </si>
   <si>
     <t>更年期潮热</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>妇科</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3297,10 +3277,6 @@
   </si>
   <si>
     <t>抗排异</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自免</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4432,10 +4408,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>呼吸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sunlenca</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4921,10 +4893,6 @@
   </si>
   <si>
     <t>Botox cosmetic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮肤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5661,6 +5629,70 @@
   </si>
   <si>
     <t>Covid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Th2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免疫/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>呼吸</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABBV US &amp; JNJ US</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>细胞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自免</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5940,7 +5972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6096,207 +6128,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9E9E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8FAE1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF91D5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC3E8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB91FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2C3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEEB9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF7E1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9191"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC3C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF91F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9DF3B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9E9E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8FAE1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF91D5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC3E8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB91FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2C3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEEB9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF7E1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9191"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC3C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF91F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9DF3B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="98">
     <dxf>
       <fill>
         <patternFill>
@@ -7293,10 +7131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C35534-39AE-476B-A3E3-9E67F9F53582}">
-  <dimension ref="A1:CX101"/>
+  <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -13565,95 +13403,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1 D1 G1 J1 M1 P1 S1">
-    <cfRule type="expression" dxfId="125" priority="29" stopIfTrue="1">
-      <formula>#REF!="精神"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="30" stopIfTrue="1">
-      <formula>#REF!="抗生素"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="31" stopIfTrue="1">
-      <formula>#REF!="实体瘤"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="122" priority="32" stopIfTrue="1">
-      <formula>#REF!="血液瘤"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="33" stopIfTrue="1">
-      <formula>#REF!="Th2免疫/呼吸"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="34" stopIfTrue="1">
-      <formula>#REF!="T细胞自免"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="35" stopIfTrue="1">
-      <formula>#REF!="B细胞自免"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="36" stopIfTrue="1">
-      <formula>#REF!="抗病毒"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="37" stopIfTrue="1">
-      <formula>#REF!="疫苗"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="38" stopIfTrue="1">
-      <formula>#REF!="心血管"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="39" stopIfTrue="1">
-      <formula>#REF!="代谢"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="40" stopIfTrue="1">
-      <formula>#REF!="神经"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="41" stopIfTrue="1">
-      <formula>#REF!="眼科"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="42" stopIfTrue="1">
-      <formula>#REF!="罕见病"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1 E1 H1 K1 N1 Q1 T1">
-    <cfRule type="expression" dxfId="111" priority="15" stopIfTrue="1">
-      <formula>#REF!="精神"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="16" stopIfTrue="1">
-      <formula>#REF!="抗生素"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="17" stopIfTrue="1">
-      <formula>#REF!="实体瘤"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="18" stopIfTrue="1">
-      <formula>#REF!="血液瘤"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="19" stopIfTrue="1">
-      <formula>#REF!="Th2免疫/呼吸"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="20" stopIfTrue="1">
-      <formula>#REF!="T细胞自免"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="105" priority="21" stopIfTrue="1">
-      <formula>#REF!="B细胞自免"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="22" stopIfTrue="1">
-      <formula>#REF!="抗病毒"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="23" stopIfTrue="1">
-      <formula>#REF!="疫苗"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="24" stopIfTrue="1">
-      <formula>#REF!="心血管"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="25" stopIfTrue="1">
-      <formula>#REF!="代谢"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="26" stopIfTrue="1">
-      <formula>#REF!="神经"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="27" stopIfTrue="1">
-      <formula>#REF!="眼科"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="28" stopIfTrue="1">
-      <formula>#REF!="罕见病"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1 F1 I1 L1 O1 R1">
+  <conditionalFormatting sqref="A1:T1">
     <cfRule type="expression" dxfId="97" priority="1" stopIfTrue="1">
       <formula>#REF!="精神"</formula>
     </cfRule>
@@ -13703,12 +13453,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F04753-BA12-427E-8473-D726637690A9}">
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:H299"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L16" sqref="L16"/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -14066,7 +13816,9 @@
       <c r="E14" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="F14" s="47"/>
+      <c r="F14" s="64" t="s">
+        <v>1161</v>
+      </c>
       <c r="G14" s="48" t="s">
         <v>289</v>
       </c>
@@ -14121,21 +13873,21 @@
       </c>
       <c r="G16" s="48"/>
       <c r="H16" t="s">
-        <v>368</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>369</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="C17" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="D17" s="47" t="s">
         <v>371</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>372</v>
       </c>
       <c r="E17" s="47" t="s">
         <v>306</v>
@@ -14149,43 +13901,43 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B18" s="47" t="s">
         <v>335</v>
       </c>
       <c r="C18" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="E18" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="F18" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="G18" s="48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A19" s="47" t="s">
         <v>377</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="47" t="s">
-        <v>378</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>335</v>
       </c>
       <c r="C19" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="D19" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="D19" s="47" t="s">
-        <v>380</v>
-      </c>
       <c r="E19" s="47"/>
-      <c r="F19" s="47" t="s">
-        <v>381</v>
+      <c r="F19" s="63" t="s">
+        <v>1160</v>
       </c>
       <c r="G19" s="48" t="s">
         <v>289</v>
@@ -14193,19 +13945,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="47" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="D20" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="E20" s="47" t="s">
         <v>384</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>386</v>
       </c>
       <c r="F20" s="47" t="s">
         <v>333</v>
@@ -14214,19 +13966,19 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B21" s="47" t="s">
         <v>292</v>
       </c>
       <c r="C21" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" s="47" t="s">
         <v>388</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>389</v>
-      </c>
-      <c r="E21" s="47" t="s">
-        <v>390</v>
       </c>
       <c r="F21" s="47" t="s">
         <v>296</v>
@@ -14237,19 +13989,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="47" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B22" s="47" t="s">
         <v>292</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>296</v>
@@ -14260,19 +14012,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="D23" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="E23" s="47" t="s">
         <v>396</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>398</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>344</v>
@@ -14283,19 +14035,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="47" t="s">
+        <v>397</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="C24" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="D24" s="47" t="s">
         <v>400</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>402</v>
-      </c>
       <c r="E24" s="47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>344</v>
@@ -14306,13 +14058,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="47" t="s">
         <v>403</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>404</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>405</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>366</v>
@@ -14329,17 +14081,17 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="47" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>344</v>
@@ -14350,16 +14102,16 @@
     </row>
     <row r="27" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A27" s="47" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B27" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E27" s="47" t="s">
         <v>343</v>
@@ -14373,16 +14125,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="D28" s="47" t="s">
         <v>412</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>414</v>
       </c>
       <c r="E28" s="47" t="s">
         <v>312</v>
@@ -14396,13 +14148,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="47" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D29" s="47" t="s">
         <v>305</v>
@@ -14419,17 +14171,17 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="47" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B30" s="47" t="s">
         <v>358</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D30" s="47"/>
       <c r="E30" s="47" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>350</v>
@@ -14438,22 +14190,22 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A31" s="47" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B31" s="47" t="s">
         <v>358</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E31" s="47"/>
-      <c r="F31" s="47" t="s">
-        <v>423</v>
+      <c r="F31" s="63" t="s">
+        <v>1160</v>
       </c>
       <c r="G31" s="48" t="s">
         <v>289</v>
@@ -14461,16 +14213,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="47" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E32" s="47" t="s">
         <v>338</v>
@@ -14484,19 +14236,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="47" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B33" s="47" t="s">
         <v>346</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>344</v>
@@ -14507,19 +14259,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="47" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B34" s="47" t="s">
         <v>346</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F34" s="47" t="s">
         <v>333</v>
@@ -14530,13 +14282,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="47" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B35" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D35" s="47" t="s">
         <v>294</v>
@@ -14551,24 +14303,24 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A36" s="47" t="s">
+        <v>433</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="E36" s="47" t="s">
         <v>436</v>
       </c>
-      <c r="B36" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>438</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="F36" s="47" t="s">
-        <v>440</v>
+      <c r="F36" s="63" t="s">
+        <v>1160</v>
       </c>
       <c r="G36" s="48" t="s">
         <v>289</v>
@@ -14576,16 +14328,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="47" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B37" s="47" t="s">
         <v>303</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E37" s="47"/>
       <c r="F37" s="47" t="s">
@@ -14597,19 +14349,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="47" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B38" s="47" t="s">
         <v>352</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F38" s="47" t="s">
         <v>307</v>
@@ -14620,19 +14372,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="47" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B39" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D39" s="47" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>290</v>
@@ -14643,13 +14395,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="47" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B40" s="47" t="s">
         <v>292</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D40" s="47" t="s">
         <v>294</v>
@@ -14666,19 +14418,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="47" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B41" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F41" s="47" t="s">
         <v>288</v>
@@ -14689,16 +14441,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="47" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E42" s="47" t="s">
         <v>306</v>
@@ -14712,13 +14464,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="47" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B43" s="47" t="s">
         <v>358</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D43" s="47" t="s">
         <v>337</v>
@@ -14735,19 +14487,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="47" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B44" s="47" t="s">
         <v>303</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F44" s="47" t="s">
         <v>333</v>
@@ -14758,19 +14510,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="47" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B45" s="47" t="s">
         <v>352</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D45" s="47" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F45" s="47" t="s">
         <v>333</v>
@@ -14781,19 +14533,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="47" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D46" s="47" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E46" s="47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F46" s="47" t="s">
         <v>344</v>
@@ -14804,19 +14556,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="47" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B47" s="47" t="s">
         <v>352</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D47" s="47" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F47" s="47" t="s">
         <v>333</v>
@@ -14827,19 +14579,19 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="47" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B48" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D48" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F48" s="47" t="s">
         <v>296</v>
@@ -14850,13 +14602,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="47" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D49" s="47">
         <v>0</v>
@@ -14871,19 +14623,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="47" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F50" s="47" t="s">
         <v>328</v>
@@ -14894,19 +14646,19 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="47" t="s">
+        <v>479</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>482</v>
+      </c>
+      <c r="E51" s="47" t="s">
         <v>483</v>
-      </c>
-      <c r="B51" s="47" t="s">
-        <v>484</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>485</v>
-      </c>
-      <c r="D51" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="E51" s="47" t="s">
-        <v>487</v>
       </c>
       <c r="F51" s="47" t="s">
         <v>296</v>
@@ -14917,19 +14669,19 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="47" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D52" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E52" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F52" s="47" t="s">
         <v>296</v>
@@ -14940,19 +14692,19 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="47" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B53" s="47" t="s">
         <v>340</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D53" s="47" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E53" s="47" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>288</v>
@@ -14963,17 +14715,17 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="47" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B54" s="47" t="s">
         <v>346</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D54" s="47"/>
       <c r="E54" s="47" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F54" s="47" t="s">
         <v>307</v>
@@ -14984,13 +14736,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="47" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D55" s="47" t="s">
         <v>305</v>
@@ -15007,17 +14759,17 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="47" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D56" s="47"/>
       <c r="E56" s="47" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>350</v>
@@ -15028,16 +14780,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="47" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B57" s="47" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E57" s="47"/>
       <c r="F57" s="47" t="s">
@@ -15049,19 +14801,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="47" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B58" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E58" s="47" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F58" s="47" t="s">
         <v>350</v>
@@ -15072,16 +14824,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="47" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B59" s="47" t="s">
         <v>346</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E59" s="47" t="s">
         <v>312</v>
@@ -15095,19 +14847,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="47" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B60" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E60" s="47" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F60" s="47" t="s">
         <v>333</v>
@@ -15118,13 +14870,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="47" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B61" s="47" t="s">
         <v>346</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D61" s="47" t="s">
         <v>348</v>
@@ -15141,16 +14893,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="47" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E62" s="47" t="s">
         <v>338</v>
@@ -15164,13 +14916,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="47" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B63" s="47" t="s">
         <v>340</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D63" s="47" t="s">
         <v>348</v>
@@ -15187,19 +14939,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="47" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B64" s="47" t="s">
         <v>303</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E64" s="47" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F64" s="47" t="s">
         <v>328</v>
@@ -15210,17 +14962,17 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="47" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B65" s="47" t="s">
         <v>335</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D65" s="47"/>
       <c r="E65" s="47" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>350</v>
@@ -15231,13 +14983,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="47" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B66" s="47" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D66" s="47" t="s">
         <v>305</v>
@@ -15254,7 +15006,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="47" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B67" s="47" t="s">
         <v>303</v>
@@ -15264,10 +15016,10 @@
         <v>Pentacel</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E67" s="47" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F67" s="47" t="s">
         <v>328</v>
@@ -15278,19 +15030,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="47" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B68" s="47" t="s">
         <v>346</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E68" s="47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F68" s="47" t="s">
         <v>333</v>
@@ -15301,20 +15053,20 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="47" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B69" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C69" s="47" t="str">
         <f>A69</f>
         <v>ProQuad/M-M-R II/Varivax</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E69" s="47" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F69" s="47" t="s">
         <v>328</v>
@@ -15325,20 +15077,20 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="47" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B70" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C70" s="47" t="str">
         <f>A70</f>
         <v>ProdQuad / MMR II / Varivax</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E70" s="47" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F70" s="47" t="s">
         <v>328</v>
@@ -15349,16 +15101,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="47" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B71" s="47" t="s">
         <v>358</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D71" s="47" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E71" s="47" t="s">
         <v>318</v>
@@ -15372,20 +15124,20 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="47" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C72" s="47" t="str">
         <f>A72</f>
         <v>Kovaltry</v>
       </c>
       <c r="D72" s="47" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E72" s="47" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F72" s="47" t="s">
         <v>362</v>
@@ -15394,22 +15146,22 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A73" s="47" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D73" s="47"/>
       <c r="E73" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="F73" s="47" t="s">
-        <v>547</v>
+        <v>443</v>
+      </c>
+      <c r="F73" s="63" t="s">
+        <v>307</v>
       </c>
       <c r="G73" s="48" t="s">
         <v>289</v>
@@ -15417,16 +15169,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="47" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B74" s="47" t="s">
         <v>340</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D74" s="47" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E74" s="47" t="s">
         <v>312</v>
@@ -15440,19 +15192,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="47" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B75" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D75" s="47" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E75" s="47" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F75" s="47" t="s">
         <v>328</v>
@@ -15461,24 +15213,24 @@
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A76" s="47" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B76" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D76" s="47" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E76" s="47" t="s">
-        <v>555</v>
-      </c>
-      <c r="F76" s="47" t="s">
-        <v>440</v>
+        <v>551</v>
+      </c>
+      <c r="F76" s="63" t="s">
+        <v>1160</v>
       </c>
       <c r="G76" s="48" t="s">
         <v>289</v>
@@ -15486,19 +15238,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="47" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B77" s="47" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D77" s="47" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E77" s="47" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F77" s="47" t="s">
         <v>333</v>
@@ -15507,19 +15259,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="47" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B78" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E78" s="47" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F78" s="47" t="s">
         <v>333</v>
@@ -15530,16 +15282,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="47" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B79" s="47" t="s">
         <v>309</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D79" s="47" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E79" s="47" t="s">
         <v>317</v>
@@ -15553,19 +15305,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="47" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B80" s="47" t="s">
         <v>292</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D80" s="47" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E80" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F80" s="47" t="s">
         <v>296</v>
@@ -15576,16 +15328,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="47" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B81" s="47" t="s">
         <v>346</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E81" s="47" t="s">
         <v>306</v>
@@ -15599,19 +15351,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="47" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B82" s="47" t="s">
         <v>292</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D82" s="47" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E82" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F82" s="47" t="s">
         <v>296</v>
@@ -15622,19 +15374,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="47" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B83" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D83" s="47" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E83" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F83" s="47" t="s">
         <v>296</v>
@@ -15645,17 +15397,17 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="47" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B84" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D84" s="47"/>
       <c r="E84" s="47" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F84" s="47" t="s">
         <v>350</v>
@@ -15666,13 +15418,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="47" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B85" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D85" s="47" t="s">
         <v>286</v>
@@ -15689,16 +15441,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="47" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B86" s="47" t="s">
         <v>358</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E86" s="47"/>
       <c r="F86" s="47" t="s">
@@ -15710,22 +15462,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="47" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B87" s="47" t="s">
         <v>352</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D87" s="47" t="s">
         <v>354</v>
       </c>
       <c r="E87" s="47" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F87" s="47" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G87" s="48" t="s">
         <v>289</v>
@@ -15733,19 +15485,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="47" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B88" s="47" t="s">
         <v>352</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E88" s="47" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F88" s="47" t="s">
         <v>307</v>
@@ -15756,19 +15508,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="47" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B89" s="47" t="s">
         <v>358</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E89" s="47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F89" s="47" t="s">
         <v>333</v>
@@ -15779,19 +15531,19 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="47" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E90" s="47" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F90" s="47" t="s">
         <v>301</v>
@@ -15802,19 +15554,19 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="47" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B91" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E91" s="47" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F91" s="47" t="s">
         <v>301</v>
@@ -15825,16 +15577,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="47" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B92" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E92" s="47" t="s">
         <v>323</v>
@@ -15846,24 +15598,24 @@
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A93" s="47" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B93" s="47" t="s">
         <v>358</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>605</v>
-      </c>
-      <c r="F93" s="47" t="s">
-        <v>606</v>
+        <v>601</v>
+      </c>
+      <c r="F93" s="63" t="s">
+        <v>1160</v>
       </c>
       <c r="G93" s="48" t="s">
         <v>289</v>
@@ -15871,17 +15623,17 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="47" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B94" s="47" t="s">
         <v>292</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D94" s="47"/>
       <c r="E94" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F94" s="47" t="s">
         <v>296</v>
@@ -15892,16 +15644,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="47" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D95" s="47" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E95" s="47" t="s">
         <v>323</v>
@@ -15915,17 +15667,17 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="47" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C96" s="47" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D96" s="47"/>
       <c r="E96" s="47" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="F96" s="47" t="s">
         <v>350</v>
@@ -15936,16 +15688,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="47" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B97" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D97" s="47" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E97" s="47" t="s">
         <v>323</v>
@@ -15959,20 +15711,20 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="47" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B98" s="47" t="s">
         <v>284</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E98" s="47"/>
-      <c r="F98" s="47" t="s">
-        <v>344</v>
+      <c r="F98" s="64" t="s">
+        <v>1160</v>
       </c>
       <c r="G98" s="48" t="s">
         <v>289</v>
@@ -15980,19 +15732,19 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="47" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B99" s="47" t="s">
         <v>309</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D99" s="47" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E99" s="47" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F99" s="47" t="s">
         <v>296</v>
@@ -16003,19 +15755,19 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="47" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B100" s="47" t="s">
         <v>346</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D100" s="47" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E100" s="47" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F100" s="47" t="s">
         <v>344</v>
@@ -16024,24 +15776,24 @@
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A101" s="47" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D101" s="47" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E101" s="47" t="s">
-        <v>629</v>
-      </c>
-      <c r="F101" s="47" t="s">
-        <v>606</v>
+        <v>624</v>
+      </c>
+      <c r="F101" s="63" t="s">
+        <v>1160</v>
       </c>
       <c r="G101" s="48" t="s">
         <v>289</v>
@@ -16049,16 +15801,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B102" s="47" t="s">
         <v>309</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D102" s="47" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E102" s="47" t="s">
         <v>323</v>
@@ -16072,16 +15824,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B103" s="47" t="s">
         <v>335</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D103" s="47" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E103" s="47" t="s">
         <v>323</v>
@@ -16095,19 +15847,19 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B104" s="47" t="s">
         <v>284</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D104" s="47" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E104" s="47" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F104" s="47" t="s">
         <v>307</v>
@@ -16118,13 +15870,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B105" s="47" t="s">
         <v>309</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D105" s="47" t="s">
         <v>331</v>
@@ -16141,19 +15893,19 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="47" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B106" s="47" t="s">
         <v>335</v>
       </c>
       <c r="C106" s="47" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D106" s="47" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E106" s="47" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F106" s="47" t="s">
         <v>290</v>
@@ -16164,13 +15916,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="47" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B107" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D107" s="47" t="s">
         <v>318</v>
@@ -16183,24 +15935,24 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A108" s="47" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B108" s="47" t="s">
         <v>358</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D108" s="47" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E108" s="47" t="s">
-        <v>439</v>
-      </c>
-      <c r="F108" s="47" t="s">
-        <v>440</v>
+        <v>436</v>
+      </c>
+      <c r="F108" s="63" t="s">
+        <v>1160</v>
       </c>
       <c r="G108" s="48" t="s">
         <v>289</v>
@@ -16208,16 +15960,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="47" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B109" s="47" t="s">
         <v>303</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D109" s="47" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E109" s="47"/>
       <c r="F109" s="47" t="s">
@@ -16229,17 +15981,17 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="47" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B110" s="47" t="s">
         <v>284</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D110" s="47"/>
       <c r="E110" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F110" s="47" t="s">
         <v>296</v>
@@ -16250,13 +16002,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="47" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B111" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D111" s="47"/>
       <c r="E111" s="47"/>
@@ -16269,17 +16021,17 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="47" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B112" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D112" s="47"/>
       <c r="E112" s="47" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F112" s="47" t="s">
         <v>344</v>
@@ -16290,16 +16042,16 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="47" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B113" s="47" t="s">
         <v>335</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D113" s="47" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E113" s="47" t="s">
         <v>306</v>
@@ -16311,22 +16063,22 @@
         <v>289</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A114" s="47" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B114" s="47" t="s">
         <v>309</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="D114" s="47"/>
       <c r="E114" s="47" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F114" s="47" t="s">
-        <v>663</v>
+        <v>1159</v>
       </c>
       <c r="G114" s="48" t="s">
         <v>289</v>
@@ -16334,19 +16086,19 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="47" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B115" s="47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E115" s="47" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F115" s="47" t="s">
         <v>333</v>
@@ -16357,19 +16109,19 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="47" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B116" s="47" t="s">
         <v>309</v>
       </c>
       <c r="C116" s="47" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="D116" s="47" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E116" s="47" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F116" s="47" t="s">
         <v>290</v>
@@ -16380,17 +16132,17 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="47" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B117" s="47" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D117" s="47"/>
       <c r="E117" s="47" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="F117" s="47" t="s">
         <v>344</v>
@@ -16401,19 +16153,19 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="47" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B118" s="47" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D118" s="47" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E118" s="47" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F118" s="47" t="s">
         <v>297</v>
@@ -16424,13 +16176,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="47" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B119" s="47" t="s">
         <v>340</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="D119" s="47" t="s">
         <v>342</v>
@@ -16447,16 +16199,16 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="47" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B120" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C120" s="47" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D120" s="47" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E120" s="47" t="s">
         <v>306</v>
@@ -16470,16 +16222,16 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="47" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B121" s="47" t="s">
         <v>309</v>
       </c>
       <c r="C121" s="47" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D121" s="47" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="E121" s="47" t="s">
         <v>332</v>
@@ -16493,17 +16245,17 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="47" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B122" s="47" t="s">
         <v>303</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D122" s="47"/>
       <c r="E122" s="47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F122" s="47" t="s">
         <v>344</v>
@@ -16514,19 +16266,19 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="47" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>284</v>
+        <v>1158</v>
       </c>
       <c r="C123" s="47" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D123" s="47" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E123" s="47" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F123" s="47" t="s">
         <v>297</v>
@@ -16537,17 +16289,17 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="47" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B124" s="47" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C124" s="47" t="str">
         <f>A124</f>
         <v>Hizentra</v>
       </c>
       <c r="D124" s="47" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E124" s="47"/>
       <c r="F124" s="47" t="s">
@@ -16559,19 +16311,19 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="47" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B125" s="47" t="s">
         <v>335</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D125" s="47" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E125" s="47" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F125" s="47" t="s">
         <v>333</v>
@@ -16582,17 +16334,17 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="47" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B126" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="D126" s="47"/>
       <c r="E126" s="47" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F126" s="47" t="s">
         <v>296</v>
@@ -16603,13 +16355,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="47" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B127" s="47" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D127" s="47" t="s">
         <v>318</v>
@@ -16624,16 +16376,16 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="47" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B128" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C128" s="47" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D128" s="47" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E128" s="47" t="s">
         <v>338</v>
@@ -16647,17 +16399,17 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="47" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B129" s="47" t="s">
         <v>346</v>
       </c>
       <c r="C129" s="47" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="D129" s="47"/>
       <c r="E129" s="47" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="F129" s="47" t="s">
         <v>362</v>
@@ -16668,16 +16420,16 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="47" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B130" s="47" t="s">
         <v>346</v>
       </c>
       <c r="C130" s="47" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D130" s="47" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E130" s="47"/>
       <c r="F130" s="47" t="s">
@@ -16689,16 +16441,16 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="47" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B131" s="47" t="s">
         <v>358</v>
       </c>
       <c r="C131" s="47" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D131" s="47" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E131" s="47" t="s">
         <v>317</v>
@@ -16712,16 +16464,16 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="47" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B132" s="47" t="s">
         <v>335</v>
       </c>
       <c r="C132" s="47" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="D132" s="47" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E132" s="47" t="s">
         <v>306</v>
@@ -16735,16 +16487,16 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="47" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B133" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C133" s="47" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D133" s="47" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E133" s="47"/>
       <c r="F133" s="47" t="s">
@@ -16756,22 +16508,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="47" t="s">
-        <v>688</v>
+        <v>711</v>
       </c>
       <c r="B134" s="47" t="s">
         <v>315</v>
       </c>
       <c r="C134" s="47" t="s">
-        <v>689</v>
+        <v>712</v>
       </c>
       <c r="D134" s="47" t="s">
-        <v>690</v>
+        <v>713</v>
       </c>
       <c r="E134" s="47" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="F134" s="47" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G134" s="48" t="s">
         <v>289</v>
@@ -16779,19 +16531,19 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="47" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="C135" s="47" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D135" s="47" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E135" s="47" t="s">
-        <v>720</v>
+        <v>338</v>
       </c>
       <c r="F135" s="47" t="s">
         <v>333</v>
@@ -16802,22 +16554,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="47" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D136" s="47" t="s">
-        <v>722</v>
+        <v>591</v>
       </c>
       <c r="E136" s="47" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>333</v>
+        <v>719</v>
       </c>
       <c r="G136" s="48" t="s">
         <v>289</v>
@@ -16825,22 +16577,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="47" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B137" s="47" t="s">
         <v>320</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D137" s="47" t="s">
-        <v>595</v>
+        <v>387</v>
       </c>
       <c r="E137" s="47" t="s">
-        <v>323</v>
+        <v>388</v>
       </c>
       <c r="F137" s="47" t="s">
-        <v>725</v>
+        <v>296</v>
       </c>
       <c r="G137" s="48" t="s">
         <v>289</v>
@@ -16848,22 +16600,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="47" t="s">
+        <v>722</v>
+      </c>
+      <c r="B138" s="47" t="s">
+        <v>723</v>
+      </c>
+      <c r="C138" s="47" t="s">
+        <v>724</v>
+      </c>
+      <c r="D138" s="47" t="s">
+        <v>725</v>
+      </c>
+      <c r="E138" s="47" t="s">
         <v>726</v>
       </c>
-      <c r="B138" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="C138" s="47" t="s">
-        <v>727</v>
-      </c>
-      <c r="D138" s="47" t="s">
-        <v>389</v>
-      </c>
-      <c r="E138" s="47" t="s">
-        <v>390</v>
-      </c>
       <c r="F138" s="47" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G138" s="48" t="s">
         <v>289</v>
@@ -16871,22 +16623,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="47" t="s">
+        <v>727</v>
+      </c>
+      <c r="B139" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="C139" s="47" t="s">
         <v>728</v>
       </c>
-      <c r="B139" s="47" t="s">
+      <c r="D139" s="47" t="s">
         <v>729</v>
       </c>
-      <c r="C139" s="47" t="s">
-        <v>730</v>
-      </c>
-      <c r="D139" s="47" t="s">
-        <v>731</v>
-      </c>
       <c r="E139" s="47" t="s">
-        <v>732</v>
+        <v>312</v>
       </c>
       <c r="F139" s="47" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G139" s="48" t="s">
         <v>289</v>
@@ -16894,22 +16646,20 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="47" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>370</v>
+        <v>731</v>
       </c>
       <c r="C140" s="47" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D140" s="47" t="s">
-        <v>735</v>
-      </c>
-      <c r="E140" s="47" t="s">
-        <v>312</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="E140" s="47"/>
       <c r="F140" s="47" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G140" s="48" t="s">
         <v>289</v>
@@ -16917,20 +16667,20 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="47" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>737</v>
+        <v>284</v>
       </c>
       <c r="C141" s="47" t="s">
-        <v>738</v>
-      </c>
-      <c r="D141" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="E141" s="47"/>
+        <v>734</v>
+      </c>
+      <c r="D141" s="47"/>
+      <c r="E141" s="47" t="s">
+        <v>295</v>
+      </c>
       <c r="F141" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G141" s="48" t="s">
         <v>289</v>
@@ -16938,20 +16688,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="47" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B142" s="47" t="s">
-        <v>284</v>
+        <v>736</v>
       </c>
       <c r="C142" s="47" t="s">
-        <v>740</v>
-      </c>
-      <c r="D142" s="47"/>
+        <v>737</v>
+      </c>
+      <c r="D142" s="47" t="s">
+        <v>383</v>
+      </c>
       <c r="E142" s="47" t="s">
-        <v>295</v>
+        <v>384</v>
       </c>
       <c r="F142" s="47" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="G142" s="48" t="s">
         <v>289</v>
@@ -16959,22 +16711,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="47" t="s">
+        <v>738</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>739</v>
+      </c>
+      <c r="C143" s="47" t="s">
+        <v>740</v>
+      </c>
+      <c r="D143" s="47" t="s">
+        <v>577</v>
+      </c>
+      <c r="E143" s="47" t="s">
         <v>741</v>
       </c>
-      <c r="B143" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="C143" s="47" t="s">
-        <v>743</v>
-      </c>
-      <c r="D143" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="E143" s="47" t="s">
-        <v>386</v>
-      </c>
       <c r="F143" s="47" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="G143" s="48" t="s">
         <v>289</v>
@@ -16982,22 +16734,20 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="47" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B144" s="47" t="s">
-        <v>745</v>
+        <v>369</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D144" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="E144" s="47" t="s">
-        <v>747</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="E144" s="47"/>
       <c r="F144" s="47" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="G144" s="48" t="s">
         <v>289</v>
@@ -17005,20 +16755,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="47" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B145" s="47" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="C145" s="47" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D145" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="E145" s="47"/>
+        <v>746</v>
+      </c>
+      <c r="E145" s="47" t="s">
+        <v>306</v>
+      </c>
       <c r="F145" s="47" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G145" s="48" t="s">
         <v>289</v>
@@ -17026,16 +16778,16 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="47" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B146" s="47" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D146" s="47" t="s">
-        <v>752</v>
+        <v>676</v>
       </c>
       <c r="E146" s="47" t="s">
         <v>306</v>
@@ -17049,22 +16801,22 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="47" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B147" s="47" t="s">
-        <v>412</v>
+        <v>340</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D147" s="47" t="s">
-        <v>682</v>
+        <v>729</v>
       </c>
       <c r="E147" s="47" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F147" s="47" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G147" s="48" t="s">
         <v>289</v>
@@ -17072,111 +16824,111 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="47" t="s">
+        <v>751</v>
+      </c>
+      <c r="B148" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="C148" s="47" t="s">
+        <v>753</v>
+      </c>
+      <c r="D148" s="47" t="s">
+        <v>754</v>
+      </c>
+      <c r="E148" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="B148" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="C148" s="47" t="s">
+      <c r="F148" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="G148" s="48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A149" s="47" t="s">
         <v>756</v>
       </c>
-      <c r="D148" s="47" t="s">
-        <v>735</v>
-      </c>
-      <c r="E148" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="F148" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="G148" s="48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="47" t="s">
+      <c r="B149" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="C149" s="47" t="s">
         <v>757</v>
       </c>
-      <c r="B149" s="47" t="s">
+      <c r="D149" s="47" t="s">
+        <v>746</v>
+      </c>
+      <c r="E149" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="F149" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="G149" s="48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="47" t="s">
         <v>758</v>
       </c>
-      <c r="C149" s="47" t="s">
+      <c r="B150" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C150" s="47" t="s">
         <v>759</v>
       </c>
-      <c r="D149" s="47" t="s">
+      <c r="D150" s="47" t="s">
         <v>760</v>
       </c>
-      <c r="E149" s="47" t="s">
+      <c r="E150" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="F150" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="G150" s="48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A151" s="47" t="s">
         <v>761</v>
       </c>
-      <c r="F149" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="G149" s="48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A150" s="47" t="s">
+      <c r="B151" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="C151" s="47" t="s">
         <v>762</v>
       </c>
-      <c r="B150" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="C150" s="47" t="s">
+      <c r="D151" s="47" t="s">
+        <v>746</v>
+      </c>
+      <c r="E151" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="F151" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="G151" s="48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="47" t="s">
         <v>763</v>
       </c>
-      <c r="D150" s="47" t="s">
-        <v>752</v>
-      </c>
-      <c r="E150" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="F150" s="47" t="s">
-        <v>307</v>
-      </c>
-      <c r="G150" s="48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="47" t="s">
+      <c r="B152" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="C152" s="47" t="s">
         <v>764</v>
       </c>
-      <c r="B151" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="C151" s="47" t="s">
+      <c r="D152" s="47" t="s">
+        <v>746</v>
+      </c>
+      <c r="E152" s="47" t="s">
         <v>765</v>
-      </c>
-      <c r="D151" s="47" t="s">
-        <v>766</v>
-      </c>
-      <c r="E151" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="F151" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="G151" s="48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A152" s="47" t="s">
-        <v>767</v>
-      </c>
-      <c r="B152" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="C152" s="47" t="s">
-        <v>768</v>
-      </c>
-      <c r="D152" s="47" t="s">
-        <v>752</v>
-      </c>
-      <c r="E152" s="47" t="s">
-        <v>306</v>
       </c>
       <c r="F152" s="47" t="s">
         <v>307</v>
@@ -17187,22 +16939,22 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="47" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>498</v>
+        <v>315</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D153" s="47" t="s">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="E153" s="47" t="s">
-        <v>771</v>
+        <v>343</v>
       </c>
       <c r="F153" s="47" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G153" s="48" t="s">
         <v>289</v>
@@ -17210,22 +16962,22 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="47" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C154" s="47" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D154" s="47" t="s">
-        <v>774</v>
+        <v>387</v>
       </c>
       <c r="E154" s="47" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="F154" s="47" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G154" s="48" t="s">
         <v>289</v>
@@ -17233,22 +16985,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="47" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C155" s="47" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D155" s="47" t="s">
-        <v>389</v>
+        <v>773</v>
       </c>
       <c r="E155" s="47" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="F155" s="47" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G155" s="48" t="s">
         <v>289</v>
@@ -17256,22 +17008,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="47" t="s">
+        <v>774</v>
+      </c>
+      <c r="B156" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="C156" s="47" t="s">
+        <v>775</v>
+      </c>
+      <c r="D156" s="47" t="s">
+        <v>776</v>
+      </c>
+      <c r="E156" s="47" t="s">
         <v>777</v>
       </c>
-      <c r="B156" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="C156" s="47" t="s">
-        <v>778</v>
-      </c>
-      <c r="D156" s="47" t="s">
-        <v>779</v>
-      </c>
-      <c r="E156" s="47" t="s">
-        <v>457</v>
-      </c>
       <c r="F156" s="47" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="G156" s="48" t="s">
         <v>289</v>
@@ -17279,22 +17031,22 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="47" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B157" s="47" t="s">
-        <v>498</v>
+        <v>736</v>
       </c>
       <c r="C157" s="47" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D157" s="47" t="s">
-        <v>782</v>
+        <v>679</v>
       </c>
       <c r="E157" s="47" t="s">
-        <v>783</v>
+        <v>332</v>
       </c>
       <c r="F157" s="47" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G157" s="48" t="s">
         <v>289</v>
@@ -17302,22 +17054,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="47" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>742</v>
+        <v>309</v>
       </c>
       <c r="C158" s="47" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D158" s="47" t="s">
-        <v>685</v>
+        <v>781</v>
       </c>
       <c r="E158" s="47" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="F158" s="47" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="G158" s="48" t="s">
         <v>289</v>
@@ -17325,22 +17077,22 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="47" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="C159" s="47" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D159" s="47" t="s">
-        <v>787</v>
+        <v>746</v>
       </c>
       <c r="E159" s="47" t="s">
-        <v>367</v>
+        <v>777</v>
       </c>
       <c r="F159" s="47" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="G159" s="48" t="s">
         <v>289</v>
@@ -17348,22 +17100,22 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="47" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B160" s="47" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C160" s="47" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D160" s="47" t="s">
-        <v>752</v>
+        <v>786</v>
       </c>
       <c r="E160" s="47" t="s">
-        <v>783</v>
+        <v>332</v>
       </c>
       <c r="F160" s="47" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G160" s="48" t="s">
         <v>289</v>
@@ -17371,19 +17123,19 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="47" t="s">
+        <v>787</v>
+      </c>
+      <c r="B161" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="C161" s="47" t="s">
+        <v>788</v>
+      </c>
+      <c r="D161" s="47" t="s">
+        <v>789</v>
+      </c>
+      <c r="E161" s="47" t="s">
         <v>790</v>
-      </c>
-      <c r="B161" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="C161" s="47" t="s">
-        <v>791</v>
-      </c>
-      <c r="D161" s="47" t="s">
-        <v>792</v>
-      </c>
-      <c r="E161" s="47" t="s">
-        <v>332</v>
       </c>
       <c r="F161" s="47" t="s">
         <v>290</v>
@@ -17394,22 +17146,22 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="47" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B162" s="47" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="C162" s="47" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D162" s="47" t="s">
-        <v>795</v>
+        <v>311</v>
       </c>
       <c r="E162" s="47" t="s">
-        <v>796</v>
+        <v>396</v>
       </c>
       <c r="F162" s="47" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="G162" s="48" t="s">
         <v>289</v>
@@ -17417,22 +17169,22 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="47" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="B163" s="47" t="s">
-        <v>309</v>
+        <v>794</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D163" s="47" t="s">
-        <v>311</v>
+        <v>795</v>
       </c>
       <c r="E163" s="47" t="s">
-        <v>398</v>
+        <v>796</v>
       </c>
       <c r="F163" s="47" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="G163" s="48" t="s">
         <v>289</v>
@@ -17440,22 +17192,22 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="47" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B164" s="47" t="s">
-        <v>800</v>
+        <v>346</v>
       </c>
       <c r="C164" s="47" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D164" s="47" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="E164" s="47" t="s">
-        <v>802</v>
+        <v>332</v>
       </c>
       <c r="F164" s="47" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="G164" s="48" t="s">
         <v>289</v>
@@ -17463,22 +17215,20 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="47" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B165" s="47" t="s">
-        <v>346</v>
+        <v>800</v>
       </c>
       <c r="C165" s="47" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D165" s="47" t="s">
-        <v>792</v>
-      </c>
-      <c r="E165" s="47" t="s">
-        <v>332</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="E165" s="47"/>
       <c r="F165" s="47" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="G165" s="48" t="s">
         <v>289</v>
@@ -17486,20 +17236,22 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="47" t="s">
+        <v>802</v>
+      </c>
+      <c r="B166" s="47" t="s">
+        <v>800</v>
+      </c>
+      <c r="C166" s="47" t="s">
+        <v>803</v>
+      </c>
+      <c r="D166" s="47" t="s">
+        <v>804</v>
+      </c>
+      <c r="E166" s="47" t="s">
         <v>805</v>
       </c>
-      <c r="B166" s="47" t="s">
-        <v>806</v>
-      </c>
-      <c r="C166" s="47" t="s">
-        <v>805</v>
-      </c>
-      <c r="D166" s="47" t="s">
-        <v>807</v>
-      </c>
-      <c r="E166" s="47"/>
       <c r="F166" s="47" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="G166" s="48" t="s">
         <v>289</v>
@@ -17507,19 +17259,19 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="47" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B167" s="47" t="s">
-        <v>806</v>
+        <v>315</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D167" s="47" t="s">
-        <v>810</v>
+        <v>452</v>
       </c>
       <c r="E167" s="47" t="s">
-        <v>811</v>
+        <v>453</v>
       </c>
       <c r="F167" s="47" t="s">
         <v>288</v>
@@ -17530,22 +17282,22 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="47" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B168" s="47" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="C168" s="47" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="D168" s="47" t="s">
-        <v>456</v>
+        <v>810</v>
       </c>
       <c r="E168" s="47" t="s">
-        <v>457</v>
+        <v>312</v>
       </c>
       <c r="F168" s="47" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G168" s="48" t="s">
         <v>289</v>
@@ -17553,22 +17305,22 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="B169" s="47" t="s">
+        <v>812</v>
+      </c>
+      <c r="C169" s="47" t="s">
+        <v>811</v>
+      </c>
+      <c r="D169" s="47" t="s">
+        <v>813</v>
+      </c>
+      <c r="E169" s="47" t="s">
         <v>814</v>
       </c>
-      <c r="B169" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="C169" s="47" t="s">
-        <v>815</v>
-      </c>
-      <c r="D169" s="47" t="s">
-        <v>816</v>
-      </c>
-      <c r="E169" s="47" t="s">
-        <v>312</v>
-      </c>
       <c r="F169" s="47" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
       <c r="G169" s="48" t="s">
         <v>289</v>
@@ -17576,22 +17328,20 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="47" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B170" s="47" t="s">
-        <v>818</v>
+        <v>315</v>
       </c>
       <c r="C170" s="47" t="s">
-        <v>817</v>
-      </c>
-      <c r="D170" s="47" t="s">
-        <v>819</v>
-      </c>
+        <v>816</v>
+      </c>
+      <c r="D170" s="47"/>
       <c r="E170" s="47" t="s">
-        <v>820</v>
+        <v>343</v>
       </c>
       <c r="F170" s="47" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="G170" s="48" t="s">
         <v>289</v>
@@ -17599,20 +17349,22 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="47" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B171" s="47" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="C171" s="47" t="s">
-        <v>822</v>
-      </c>
-      <c r="D171" s="47"/>
+        <v>817</v>
+      </c>
+      <c r="D171" s="47" t="s">
+        <v>818</v>
+      </c>
       <c r="E171" s="47" t="s">
-        <v>343</v>
+        <v>819</v>
       </c>
       <c r="F171" s="47" t="s">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="G171" s="48" t="s">
         <v>289</v>
@@ -17620,22 +17372,22 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="47" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B172" s="47" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="C172" s="47" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D172" s="47" t="s">
-        <v>824</v>
+        <v>311</v>
       </c>
       <c r="E172" s="47" t="s">
-        <v>825</v>
+        <v>396</v>
       </c>
       <c r="F172" s="47" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="G172" s="48" t="s">
         <v>289</v>
@@ -17643,22 +17395,22 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="47" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B173" s="47" t="s">
-        <v>346</v>
+        <v>494</v>
       </c>
       <c r="C173" s="47" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D173" s="47" t="s">
-        <v>311</v>
+        <v>746</v>
       </c>
       <c r="E173" s="47" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="F173" s="47" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="G173" s="48" t="s">
         <v>289</v>
@@ -17666,22 +17418,23 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="47" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B174" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="C174" s="47" t="s">
-        <v>829</v>
+        <v>825</v>
+      </c>
+      <c r="C174" s="47" t="str">
+        <f>A174</f>
+        <v>Amvuttra</v>
       </c>
       <c r="D174" s="47" t="s">
-        <v>752</v>
+        <v>826</v>
       </c>
       <c r="E174" s="47" t="s">
-        <v>306</v>
+        <v>827</v>
       </c>
       <c r="F174" s="47" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="G174" s="48" t="s">
         <v>289</v>
@@ -17689,20 +17442,19 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="47" t="s">
+        <v>828</v>
+      </c>
+      <c r="B175" s="47" t="s">
+        <v>829</v>
+      </c>
+      <c r="C175" s="47" t="s">
+        <v>828</v>
+      </c>
+      <c r="D175" s="47" t="s">
         <v>830</v>
       </c>
-      <c r="B175" s="47" t="s">
-        <v>831</v>
-      </c>
-      <c r="C175" s="47" t="str">
-        <f>A175</f>
-        <v>Amvuttra</v>
-      </c>
-      <c r="D175" s="47" t="s">
-        <v>832</v>
-      </c>
       <c r="E175" s="47" t="s">
-        <v>833</v>
+        <v>540</v>
       </c>
       <c r="F175" s="47" t="s">
         <v>362</v>
@@ -17713,22 +17465,22 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="47" t="s">
+        <v>831</v>
+      </c>
+      <c r="B176" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="C176" s="47" t="s">
+        <v>832</v>
+      </c>
+      <c r="D176" s="47" t="s">
+        <v>833</v>
+      </c>
+      <c r="E176" s="47" t="s">
         <v>834</v>
       </c>
-      <c r="B176" s="47" t="s">
-        <v>835</v>
-      </c>
-      <c r="C176" s="47" t="s">
-        <v>834</v>
-      </c>
-      <c r="D176" s="47" t="s">
-        <v>836</v>
-      </c>
-      <c r="E176" s="47" t="s">
-        <v>544</v>
-      </c>
       <c r="F176" s="47" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="G176" s="48" t="s">
         <v>289</v>
@@ -17736,19 +17488,19 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="47" t="s">
+        <v>835</v>
+      </c>
+      <c r="B177" s="47" t="s">
+        <v>836</v>
+      </c>
+      <c r="C177" s="47" t="s">
         <v>837</v>
       </c>
-      <c r="B177" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="C177" s="47" t="s">
+      <c r="D177" s="47" t="s">
         <v>838</v>
       </c>
-      <c r="D177" s="47" t="s">
+      <c r="E177" s="47" t="s">
         <v>839</v>
-      </c>
-      <c r="E177" s="47" t="s">
-        <v>840</v>
       </c>
       <c r="F177" s="47" t="s">
         <v>288</v>
@@ -17759,22 +17511,20 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="47" t="s">
+        <v>840</v>
+      </c>
+      <c r="B178" s="47" t="s">
         <v>841</v>
       </c>
-      <c r="B178" s="47" t="s">
-        <v>842</v>
-      </c>
       <c r="C178" s="47" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D178" s="47" t="s">
-        <v>844</v>
-      </c>
-      <c r="E178" s="47" t="s">
-        <v>845</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="E178" s="47"/>
       <c r="F178" s="47" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="G178" s="48" t="s">
         <v>289</v>
@@ -17782,20 +17532,22 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="47" t="s">
-        <v>846</v>
+        <v>778</v>
       </c>
       <c r="B179" s="47" t="s">
-        <v>847</v>
+        <v>335</v>
       </c>
       <c r="C179" s="47" t="s">
-        <v>846</v>
+        <v>778</v>
       </c>
       <c r="D179" s="47" t="s">
-        <v>505</v>
-      </c>
-      <c r="E179" s="47"/>
+        <v>679</v>
+      </c>
+      <c r="E179" s="47" t="s">
+        <v>332</v>
+      </c>
       <c r="F179" s="47" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="G179" s="48" t="s">
         <v>289</v>
@@ -17803,19 +17555,19 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="47" t="s">
-        <v>784</v>
+        <v>842</v>
       </c>
       <c r="B180" s="47" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C180" s="47" t="s">
-        <v>784</v>
+        <v>843</v>
       </c>
       <c r="D180" s="47" t="s">
-        <v>685</v>
+        <v>446</v>
       </c>
       <c r="E180" s="47" t="s">
-        <v>332</v>
+        <v>447</v>
       </c>
       <c r="F180" s="47" t="s">
         <v>290</v>
@@ -17826,19 +17578,19 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="47" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="B181" s="47" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="C181" s="47" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="D181" s="47" t="s">
-        <v>450</v>
+        <v>845</v>
       </c>
       <c r="E181" s="47" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F181" s="47" t="s">
         <v>290</v>
@@ -17849,22 +17601,22 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="47" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B182" s="47" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C182" s="47" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D182" s="47" t="s">
-        <v>851</v>
+        <v>684</v>
       </c>
       <c r="E182" s="47" t="s">
-        <v>451</v>
+        <v>685</v>
       </c>
       <c r="F182" s="47" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G182" s="48" t="s">
         <v>289</v>
@@ -17872,22 +17624,22 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="47" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="B183" s="47" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="C183" s="47" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D183" s="47" t="s">
-        <v>690</v>
+        <v>810</v>
       </c>
       <c r="E183" s="47" t="s">
-        <v>691</v>
+        <v>312</v>
       </c>
       <c r="F183" s="47" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G183" s="48" t="s">
         <v>289</v>
@@ -17895,22 +17647,22 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="47" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="B184" s="47" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C184" s="47" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D184" s="47" t="s">
-        <v>816</v>
+        <v>851</v>
       </c>
       <c r="E184" s="47" t="s">
-        <v>312</v>
+        <v>852</v>
       </c>
       <c r="F184" s="47" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="G184" s="48" t="s">
         <v>289</v>
@@ -17918,22 +17670,22 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="47" t="s">
+        <v>853</v>
+      </c>
+      <c r="B185" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="C185" s="47" t="s">
+        <v>854</v>
+      </c>
+      <c r="D185" s="47" t="s">
+        <v>855</v>
+      </c>
+      <c r="E185" s="47" t="s">
         <v>856</v>
       </c>
-      <c r="B185" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="C185" s="47" t="s">
-        <v>856</v>
-      </c>
-      <c r="D185" s="47" t="s">
-        <v>857</v>
-      </c>
-      <c r="E185" s="47" t="s">
-        <v>858</v>
-      </c>
       <c r="F185" s="47" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="G185" s="48" t="s">
         <v>289</v>
@@ -17941,22 +17693,22 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="47" t="s">
+        <v>857</v>
+      </c>
+      <c r="B186" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="C186" s="47" t="s">
+        <v>857</v>
+      </c>
+      <c r="D186" s="47" t="s">
+        <v>858</v>
+      </c>
+      <c r="E186" s="47" t="s">
         <v>859</v>
       </c>
-      <c r="B186" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="C186" s="47" t="s">
-        <v>860</v>
-      </c>
-      <c r="D186" s="47" t="s">
-        <v>861</v>
-      </c>
-      <c r="E186" s="47" t="s">
-        <v>862</v>
-      </c>
       <c r="F186" s="47" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="G186" s="48" t="s">
         <v>289</v>
@@ -17964,22 +17716,22 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="47" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B187" s="47" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="C187" s="47" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D187" s="47" t="s">
-        <v>864</v>
+        <v>833</v>
       </c>
       <c r="E187" s="47" t="s">
-        <v>865</v>
+        <v>834</v>
       </c>
       <c r="F187" s="47" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="G187" s="48" t="s">
         <v>289</v>
@@ -17987,22 +17739,22 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="47" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="B188" s="47" t="s">
-        <v>412</v>
+        <v>538</v>
       </c>
       <c r="C188" s="47" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D188" s="47" t="s">
-        <v>839</v>
+        <v>446</v>
       </c>
       <c r="E188" s="47" t="s">
-        <v>840</v>
+        <v>447</v>
       </c>
       <c r="F188" s="47" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G188" s="48" t="s">
         <v>289</v>
@@ -18010,68 +17762,68 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="47" t="s">
+        <v>864</v>
+      </c>
+      <c r="B189" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C189" s="47" t="s">
+        <v>865</v>
+      </c>
+      <c r="D189" s="47" t="s">
+        <v>866</v>
+      </c>
+      <c r="E189" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="F189" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="G189" s="48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
+      <c r="A190" s="47" t="s">
+        <v>867</v>
+      </c>
+      <c r="B190" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="C190" s="47" t="s">
+        <v>867</v>
+      </c>
+      <c r="D190" s="47" t="s">
         <v>868</v>
       </c>
-      <c r="B189" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="C189" s="47" t="s">
+      <c r="E190" s="47" t="s">
+        <v>859</v>
+      </c>
+      <c r="F190" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="G190" s="48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" s="47" t="s">
         <v>869</v>
       </c>
-      <c r="D189" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="E189" s="47" t="s">
-        <v>451</v>
-      </c>
-      <c r="F189" s="47" t="s">
-        <v>290</v>
-      </c>
-      <c r="G189" s="48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="47" t="s">
+      <c r="B191" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="C191" s="47" t="s">
         <v>870</v>
       </c>
-      <c r="B190" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="C190" s="47" t="s">
-        <v>871</v>
-      </c>
-      <c r="D190" s="47" t="s">
-        <v>872</v>
-      </c>
-      <c r="E190" s="47" t="s">
-        <v>312</v>
-      </c>
-      <c r="F190" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="G190" s="48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A191" s="47" t="s">
-        <v>873</v>
-      </c>
-      <c r="B191" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="C191" s="47" t="s">
-        <v>873</v>
-      </c>
       <c r="D191" s="47" t="s">
-        <v>874</v>
+        <v>716</v>
       </c>
       <c r="E191" s="47" t="s">
-        <v>865</v>
+        <v>338</v>
       </c>
       <c r="F191" s="47" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="G191" s="48" t="s">
         <v>289</v>
@@ -18079,22 +17831,22 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="47" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="B192" s="47" t="s">
-        <v>352</v>
+        <v>872</v>
       </c>
       <c r="C192" s="47" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D192" s="47" t="s">
-        <v>722</v>
+        <v>874</v>
       </c>
       <c r="E192" s="47" t="s">
-        <v>338</v>
+        <v>505</v>
       </c>
       <c r="F192" s="47" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G192" s="48" t="s">
         <v>289</v>
@@ -18102,22 +17854,22 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="47" t="s">
+        <v>875</v>
+      </c>
+      <c r="B193" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C193" s="47" t="s">
+        <v>876</v>
+      </c>
+      <c r="D193" s="47" t="s">
         <v>877</v>
       </c>
-      <c r="B193" s="47" t="s">
-        <v>878</v>
-      </c>
-      <c r="C193" s="47" t="s">
-        <v>879</v>
-      </c>
-      <c r="D193" s="47" t="s">
-        <v>880</v>
-      </c>
       <c r="E193" s="47" t="s">
-        <v>509</v>
+        <v>343</v>
       </c>
       <c r="F193" s="47" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="G193" s="48" t="s">
         <v>289</v>
@@ -18125,22 +17877,22 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="47" t="s">
+        <v>878</v>
+      </c>
+      <c r="B194" s="47" t="s">
+        <v>879</v>
+      </c>
+      <c r="C194" s="47" t="s">
+        <v>880</v>
+      </c>
+      <c r="D194" s="47" t="s">
         <v>881</v>
       </c>
-      <c r="B194" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="C194" s="47" t="s">
-        <v>882</v>
-      </c>
-      <c r="D194" s="47" t="s">
-        <v>883</v>
-      </c>
       <c r="E194" s="47" t="s">
-        <v>343</v>
+        <v>714</v>
       </c>
       <c r="F194" s="47" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G194" s="48" t="s">
         <v>289</v>
@@ -18148,22 +17900,22 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="47" t="s">
+        <v>882</v>
+      </c>
+      <c r="B195" s="47" t="s">
+        <v>883</v>
+      </c>
+      <c r="C195" s="47" t="s">
         <v>884</v>
       </c>
-      <c r="B195" s="47" t="s">
+      <c r="D195" s="47" t="s">
         <v>885</v>
       </c>
-      <c r="C195" s="47" t="s">
+      <c r="E195" s="47" t="s">
         <v>886</v>
       </c>
-      <c r="D195" s="47" t="s">
-        <v>887</v>
-      </c>
-      <c r="E195" s="47" t="s">
-        <v>720</v>
-      </c>
       <c r="F195" s="47" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="G195" s="48" t="s">
         <v>289</v>
@@ -18171,19 +17923,19 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="47" t="s">
+        <v>887</v>
+      </c>
+      <c r="B196" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="C196" s="47" t="s">
         <v>888</v>
       </c>
-      <c r="B196" s="47" t="s">
+      <c r="D196" s="47" t="s">
         <v>889</v>
       </c>
-      <c r="C196" s="47" t="s">
+      <c r="E196" s="47" t="s">
         <v>890</v>
-      </c>
-      <c r="D196" s="47" t="s">
-        <v>891</v>
-      </c>
-      <c r="E196" s="47" t="s">
-        <v>892</v>
       </c>
       <c r="F196" s="47" t="s">
         <v>362</v>
@@ -18194,22 +17946,20 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="47" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B197" s="47" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C197" s="47" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D197" s="47" t="s">
-        <v>895</v>
-      </c>
-      <c r="E197" s="47" t="s">
-        <v>896</v>
-      </c>
+        <v>892</v>
+      </c>
+      <c r="E197" s="47"/>
       <c r="F197" s="47" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="G197" s="48" t="s">
         <v>289</v>
@@ -18217,41 +17967,43 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="47" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B198" s="47" t="s">
-        <v>292</v>
+        <v>894</v>
       </c>
       <c r="C198" s="47" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D198" s="47" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E198" s="47"/>
       <c r="F198" s="47" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="G198" s="48" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A199" s="47" t="s">
+        <v>897</v>
+      </c>
+      <c r="B199" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="C199" s="47" t="s">
+        <v>898</v>
+      </c>
+      <c r="D199" s="47" t="s">
         <v>899</v>
       </c>
-      <c r="B199" s="47" t="s">
-        <v>900</v>
-      </c>
-      <c r="C199" s="47" t="s">
-        <v>901</v>
-      </c>
-      <c r="D199" s="47" t="s">
-        <v>902</v>
-      </c>
-      <c r="E199" s="47"/>
+      <c r="E199" s="47" t="s">
+        <v>375</v>
+      </c>
       <c r="F199" s="47" t="s">
-        <v>344</v>
+        <v>1157</v>
       </c>
       <c r="G199" s="48" t="s">
         <v>289</v>
@@ -18259,22 +18011,22 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="47" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B200" s="47" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="C200" s="47" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D200" s="47" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E200" s="47" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="F200" s="47" t="s">
-        <v>906</v>
+        <v>296</v>
       </c>
       <c r="G200" s="48" t="s">
         <v>289</v>
@@ -18282,22 +18034,22 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="47" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B201" s="47" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="C201" s="47" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="D201" s="47" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E201" s="47" t="s">
-        <v>390</v>
+        <v>906</v>
       </c>
       <c r="F201" s="47" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="G201" s="48" t="s">
         <v>289</v>
@@ -18305,22 +18057,22 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="47" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B202" s="47" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="C202" s="47" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D202" s="47" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E202" s="47" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="F202" s="47" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="G202" s="48" t="s">
         <v>289</v>
@@ -18328,22 +18080,22 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="47" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B203" s="47" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="C203" s="47" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D203" s="47" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E203" s="47" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F203" s="47" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G203" s="48" t="s">
         <v>289</v>
@@ -18351,22 +18103,22 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="47" t="s">
+        <v>914</v>
+      </c>
+      <c r="B204" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="C204" s="47" t="s">
+        <v>915</v>
+      </c>
+      <c r="D204" s="47" t="s">
+        <v>916</v>
+      </c>
+      <c r="E204" s="47" t="s">
         <v>917</v>
       </c>
-      <c r="B204" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="C204" s="47" t="s">
-        <v>918</v>
-      </c>
-      <c r="D204" s="47" t="s">
-        <v>919</v>
-      </c>
-      <c r="E204" s="47" t="s">
-        <v>920</v>
-      </c>
       <c r="F204" s="47" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="G204" s="48" t="s">
         <v>289</v>
@@ -18374,20 +18126,18 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="47" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B205" s="47" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C205" s="47" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D205" s="47" t="s">
-        <v>923</v>
-      </c>
-      <c r="E205" s="47" t="s">
-        <v>924</v>
-      </c>
+        <v>920</v>
+      </c>
+      <c r="E205" s="47"/>
       <c r="F205" s="47" t="s">
         <v>290</v>
       </c>
@@ -18397,16 +18147,16 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="47" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="B206" s="47" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="C206" s="47" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="D206" s="47" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="E206" s="47"/>
       <c r="F206" s="47" t="s">
@@ -18418,20 +18168,22 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="47" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B207" s="47" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C207" s="47" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="D207" s="47" t="s">
-        <v>929</v>
-      </c>
-      <c r="E207" s="47"/>
+        <v>925</v>
+      </c>
+      <c r="E207" s="47" t="s">
+        <v>323</v>
+      </c>
       <c r="F207" s="47" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="G207" s="48" t="s">
         <v>289</v>
@@ -18439,22 +18191,22 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="47" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="B208" s="47" t="s">
-        <v>320</v>
+        <v>927</v>
       </c>
       <c r="C208" s="47" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D208" s="47" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="E208" s="47" t="s">
-        <v>323</v>
+        <v>913</v>
       </c>
       <c r="F208" s="47" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="G208" s="48" t="s">
         <v>289</v>
@@ -18462,22 +18214,22 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="47" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="B209" s="47" t="s">
-        <v>934</v>
+        <v>335</v>
       </c>
       <c r="C209" s="47" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D209" s="47" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E209" s="47" t="s">
-        <v>920</v>
+        <v>312</v>
       </c>
       <c r="F209" s="47" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="G209" s="48" t="s">
         <v>289</v>
@@ -18485,22 +18237,23 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="47" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="B210" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="C210" s="47" t="s">
-        <v>937</v>
+        <v>358</v>
+      </c>
+      <c r="C210" s="47" t="str">
+        <f>A210</f>
+        <v>Vyndaqel</v>
       </c>
       <c r="D210" s="47" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E210" s="47" t="s">
-        <v>312</v>
+        <v>827</v>
       </c>
       <c r="F210" s="47" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
       <c r="G210" s="48" t="s">
         <v>289</v>
@@ -18508,23 +18261,22 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="47" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="B211" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="C211" s="47" t="str">
-        <f>A211</f>
-        <v>Vyndaqel</v>
+        <v>494</v>
+      </c>
+      <c r="C211" s="47" t="s">
+        <v>935</v>
       </c>
       <c r="D211" s="47" t="s">
-        <v>940</v>
+        <v>305</v>
       </c>
       <c r="E211" s="47" t="s">
-        <v>833</v>
+        <v>306</v>
       </c>
       <c r="F211" s="47" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="G211" s="48" t="s">
         <v>289</v>
@@ -18532,22 +18284,20 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="47" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="B212" s="47" t="s">
-        <v>498</v>
+        <v>410</v>
       </c>
       <c r="C212" s="47" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="D212" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="E212" s="47" t="s">
-        <v>306</v>
-      </c>
+        <v>896</v>
+      </c>
+      <c r="E212" s="47"/>
       <c r="F212" s="47" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="G212" s="48" t="s">
         <v>289</v>
@@ -18555,20 +18305,22 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="47" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="B213" s="47" t="s">
-        <v>412</v>
+        <v>320</v>
       </c>
       <c r="C213" s="47" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D213" s="47" t="s">
-        <v>902</v>
-      </c>
-      <c r="E213" s="47"/>
+        <v>569</v>
+      </c>
+      <c r="E213" s="47" t="s">
+        <v>388</v>
+      </c>
       <c r="F213" s="47" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="G213" s="48" t="s">
         <v>289</v>
@@ -18576,22 +18328,20 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="47" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B214" s="47" t="s">
-        <v>320</v>
+        <v>894</v>
       </c>
       <c r="C214" s="47" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D214" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="E214" s="47" t="s">
-        <v>390</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="E214" s="47"/>
       <c r="F214" s="47" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G214" s="48" t="s">
         <v>289</v>
@@ -18599,20 +18349,20 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="47" t="s">
-        <v>946</v>
+        <v>857</v>
       </c>
       <c r="B215" s="47" t="s">
-        <v>900</v>
+        <v>941</v>
       </c>
       <c r="C215" s="47" t="s">
-        <v>947</v>
-      </c>
-      <c r="D215" s="47" t="s">
-        <v>581</v>
-      </c>
-      <c r="E215" s="47"/>
+        <v>942</v>
+      </c>
+      <c r="D215" s="47"/>
+      <c r="E215" s="47" t="s">
+        <v>859</v>
+      </c>
       <c r="F215" s="47" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="G215" s="48" t="s">
         <v>289</v>
@@ -18620,20 +18370,22 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="47" t="s">
-        <v>863</v>
+        <v>943</v>
       </c>
       <c r="B216" s="47" t="s">
-        <v>948</v>
+        <v>346</v>
       </c>
       <c r="C216" s="47" t="s">
-        <v>949</v>
-      </c>
-      <c r="D216" s="47"/>
+        <v>944</v>
+      </c>
+      <c r="D216" s="47" t="s">
+        <v>945</v>
+      </c>
       <c r="E216" s="47" t="s">
-        <v>865</v>
+        <v>946</v>
       </c>
       <c r="F216" s="47" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G216" s="48" t="s">
         <v>289</v>
@@ -18641,22 +18393,20 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="47" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B217" s="47" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="C217" s="47" t="s">
-        <v>951</v>
-      </c>
-      <c r="D217" s="47" t="s">
-        <v>952</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="D217" s="47"/>
       <c r="E217" s="47" t="s">
-        <v>953</v>
+        <v>504</v>
       </c>
       <c r="F217" s="47" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="G217" s="48" t="s">
         <v>289</v>
@@ -18664,20 +18414,22 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="47" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B218" s="47" t="s">
-        <v>284</v>
+        <v>950</v>
       </c>
       <c r="C218" s="47" t="s">
-        <v>955</v>
-      </c>
-      <c r="D218" s="47"/>
+        <v>951</v>
+      </c>
+      <c r="D218" s="47" t="s">
+        <v>446</v>
+      </c>
       <c r="E218" s="47" t="s">
-        <v>508</v>
+        <v>447</v>
       </c>
       <c r="F218" s="47" t="s">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="G218" s="48" t="s">
         <v>289</v>
@@ -18685,22 +18437,20 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="47" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B219" s="47" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C219" s="47" t="s">
-        <v>958</v>
-      </c>
-      <c r="D219" s="47" t="s">
-        <v>450</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="D219" s="47"/>
       <c r="E219" s="47" t="s">
-        <v>451</v>
+        <v>859</v>
       </c>
       <c r="F219" s="47" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="G219" s="48" t="s">
         <v>289</v>
@@ -18708,20 +18458,20 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="47" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B220" s="47" t="s">
-        <v>960</v>
+        <v>398</v>
       </c>
       <c r="C220" s="47" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D220" s="47"/>
       <c r="E220" s="47" t="s">
-        <v>865</v>
+        <v>890</v>
       </c>
       <c r="F220" s="47" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="G220" s="48" t="s">
         <v>289</v>
@@ -18729,20 +18479,22 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="47" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="B221" s="47" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
       <c r="C221" s="47" t="s">
-        <v>963</v>
-      </c>
-      <c r="D221" s="47"/>
+        <v>958</v>
+      </c>
+      <c r="D221" s="47" t="s">
+        <v>569</v>
+      </c>
       <c r="E221" s="47" t="s">
-        <v>896</v>
+        <v>388</v>
       </c>
       <c r="F221" s="47" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="G221" s="48" t="s">
         <v>289</v>
@@ -18750,20 +18502,18 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="47" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B222" s="47" t="s">
         <v>292</v>
       </c>
       <c r="C222" s="47" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D222" s="47" t="s">
-        <v>573</v>
-      </c>
-      <c r="E222" s="47" t="s">
-        <v>390</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E222" s="47"/>
       <c r="F222" s="47" t="s">
         <v>296</v>
       </c>
@@ -18773,20 +18523,20 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="47" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B223" s="47" t="s">
-        <v>292</v>
+        <v>962</v>
       </c>
       <c r="C223" s="47" t="s">
-        <v>967</v>
-      </c>
-      <c r="D223" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="E223" s="47"/>
+        <v>963</v>
+      </c>
+      <c r="D223" s="47"/>
+      <c r="E223" s="47" t="s">
+        <v>964</v>
+      </c>
       <c r="F223" s="47" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="G223" s="48" t="s">
         <v>289</v>
@@ -18794,20 +18544,22 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="47" t="s">
-        <v>968</v>
+        <v>766</v>
       </c>
       <c r="B224" s="47" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C224" s="47" t="s">
-        <v>970</v>
-      </c>
-      <c r="D224" s="47"/>
+        <v>767</v>
+      </c>
+      <c r="D224" s="47" t="s">
+        <v>768</v>
+      </c>
       <c r="E224" s="47" t="s">
-        <v>971</v>
+        <v>343</v>
       </c>
       <c r="F224" s="47" t="s">
-        <v>350</v>
+        <v>297</v>
       </c>
       <c r="G224" s="48" t="s">
         <v>289</v>
@@ -18815,22 +18567,22 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="47" t="s">
-        <v>772</v>
+        <v>966</v>
       </c>
       <c r="B225" s="47" t="s">
-        <v>972</v>
+        <v>494</v>
       </c>
       <c r="C225" s="47" t="s">
-        <v>773</v>
+        <v>967</v>
       </c>
       <c r="D225" s="47" t="s">
-        <v>774</v>
+        <v>967</v>
       </c>
       <c r="E225" s="47" t="s">
-        <v>343</v>
+        <v>968</v>
       </c>
       <c r="F225" s="47" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="G225" s="48" t="s">
         <v>289</v>
@@ -18838,22 +18590,20 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="47" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B226" s="47" t="s">
-        <v>498</v>
+        <v>284</v>
       </c>
       <c r="C226" s="47" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D226" s="47" t="s">
-        <v>974</v>
-      </c>
-      <c r="E226" s="47" t="s">
-        <v>975</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="E226" s="47"/>
       <c r="F226" s="47" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G226" s="48" t="s">
         <v>289</v>
@@ -18861,18 +18611,18 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="47" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B227" s="47" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C227" s="47" t="s">
-        <v>977</v>
-      </c>
-      <c r="D227" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="E227" s="47"/>
+        <v>972</v>
+      </c>
+      <c r="D227" s="47"/>
+      <c r="E227" s="47" t="s">
+        <v>859</v>
+      </c>
       <c r="F227" s="47" t="s">
         <v>296</v>
       </c>
@@ -18882,17 +18632,17 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="47" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B228" s="47" t="s">
         <v>292</v>
       </c>
       <c r="C228" s="47" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D228" s="47"/>
       <c r="E228" s="47" t="s">
-        <v>865</v>
+        <v>388</v>
       </c>
       <c r="F228" s="47" t="s">
         <v>296</v>
@@ -18903,20 +18653,22 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="47" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="B229" s="47" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="C229" s="47" t="s">
-        <v>981</v>
-      </c>
-      <c r="D229" s="47"/>
+        <v>976</v>
+      </c>
+      <c r="D229" s="47" t="s">
+        <v>786</v>
+      </c>
       <c r="E229" s="47" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="F229" s="47" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G229" s="48" t="s">
         <v>289</v>
@@ -18924,22 +18676,22 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="47" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B230" s="47" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="C230" s="47" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="D230" s="47" t="s">
-        <v>792</v>
+        <v>818</v>
       </c>
       <c r="E230" s="47" t="s">
-        <v>332</v>
+        <v>979</v>
       </c>
       <c r="F230" s="47" t="s">
-        <v>290</v>
+        <v>362</v>
       </c>
       <c r="G230" s="48" t="s">
         <v>289</v>
@@ -18947,22 +18699,20 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="47" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="B231" s="47" t="s">
-        <v>335</v>
+        <v>800</v>
       </c>
       <c r="C231" s="47" t="s">
-        <v>985</v>
-      </c>
-      <c r="D231" s="47" t="s">
-        <v>824</v>
-      </c>
+        <v>981</v>
+      </c>
+      <c r="D231" s="47"/>
       <c r="E231" s="47" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="F231" s="47" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G231" s="48" t="s">
         <v>289</v>
@@ -18970,20 +18720,22 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="47" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B232" s="47" t="s">
-        <v>806</v>
+        <v>369</v>
       </c>
       <c r="C232" s="47" t="s">
-        <v>988</v>
-      </c>
-      <c r="D232" s="47"/>
+        <v>984</v>
+      </c>
+      <c r="D232" s="47" t="s">
+        <v>985</v>
+      </c>
       <c r="E232" s="47" t="s">
-        <v>989</v>
+        <v>859</v>
       </c>
       <c r="F232" s="47" t="s">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="G232" s="48" t="s">
         <v>289</v>
@@ -18991,19 +18743,19 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="47" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="B233" s="47" t="s">
-        <v>370</v>
+        <v>292</v>
       </c>
       <c r="C233" s="47" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D233" s="47" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="E233" s="47" t="s">
-        <v>865</v>
+        <v>388</v>
       </c>
       <c r="F233" s="47" t="s">
         <v>296</v>
@@ -19014,22 +18766,22 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="47" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B234" s="47" t="s">
-        <v>292</v>
+        <v>494</v>
       </c>
       <c r="C234" s="47" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D234" s="47" t="s">
-        <v>995</v>
+        <v>746</v>
       </c>
       <c r="E234" s="47" t="s">
-        <v>390</v>
+        <v>306</v>
       </c>
       <c r="F234" s="47" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="G234" s="48" t="s">
         <v>289</v>
@@ -19037,22 +18789,22 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="47" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="B235" s="47" t="s">
-        <v>498</v>
+        <v>315</v>
       </c>
       <c r="C235" s="47" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="D235" s="47" t="s">
-        <v>752</v>
+        <v>992</v>
       </c>
       <c r="E235" s="47" t="s">
-        <v>306</v>
+        <v>859</v>
       </c>
       <c r="F235" s="47" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="G235" s="48" t="s">
         <v>289</v>
@@ -19060,22 +18812,22 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="47" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="B236" s="47" t="s">
-        <v>315</v>
+        <v>410</v>
       </c>
       <c r="C236" s="47" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D236" s="47" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="E236" s="47" t="s">
-        <v>865</v>
+        <v>765</v>
       </c>
       <c r="F236" s="47" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="G236" s="48" t="s">
         <v>289</v>
@@ -19083,22 +18835,23 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="47" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B237" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="C237" s="47" t="s">
-        <v>1001</v>
+        <v>812</v>
+      </c>
+      <c r="C237" s="47" t="str">
+        <f>A237</f>
+        <v>Alyftrek</v>
       </c>
       <c r="D237" s="47" t="s">
-        <v>1002</v>
+        <v>813</v>
       </c>
       <c r="E237" s="47" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
       <c r="F237" s="47" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="G237" s="48" t="s">
         <v>289</v>
@@ -19106,23 +18859,22 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="47" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="B238" s="47" t="s">
-        <v>818</v>
-      </c>
-      <c r="C238" s="47" t="str">
-        <f>A238</f>
-        <v>Alyftrek</v>
+        <v>998</v>
+      </c>
+      <c r="C238" s="47" t="s">
+        <v>999</v>
       </c>
       <c r="D238" s="47" t="s">
-        <v>819</v>
+        <v>684</v>
       </c>
       <c r="E238" s="47" t="s">
-        <v>820</v>
+        <v>685</v>
       </c>
       <c r="F238" s="47" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="G238" s="48" t="s">
         <v>289</v>
@@ -19130,22 +18882,22 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="47" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B239" s="47" t="s">
-        <v>1005</v>
+        <v>369</v>
       </c>
       <c r="C239" s="47" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="D239" s="47" t="s">
-        <v>690</v>
+        <v>855</v>
       </c>
       <c r="E239" s="47" t="s">
-        <v>691</v>
+        <v>714</v>
       </c>
       <c r="F239" s="47" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G239" s="48" t="s">
         <v>289</v>
@@ -19153,22 +18905,22 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="47" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B240" s="47" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C240" s="47" t="s">
-        <v>1008</v>
+        <v>359</v>
       </c>
       <c r="D240" s="47" t="s">
-        <v>861</v>
+        <v>360</v>
       </c>
       <c r="E240" s="47" t="s">
-        <v>720</v>
+        <v>361</v>
       </c>
       <c r="F240" s="47" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G240" s="48" t="s">
         <v>289</v>
@@ -19176,22 +18928,23 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="47" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B241" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="C241" s="47" t="s">
-        <v>359</v>
+        <v>410</v>
+      </c>
+      <c r="C241" s="47" t="str">
+        <f>A241</f>
+        <v>Retatrutide</v>
       </c>
       <c r="D241" s="47" t="s">
-        <v>360</v>
+        <v>1004</v>
       </c>
       <c r="E241" s="47" t="s">
-        <v>361</v>
+        <v>777</v>
       </c>
       <c r="F241" s="47" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="G241" s="48" t="s">
         <v>289</v>
@@ -19199,46 +18952,43 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="47" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="B242" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="C242" s="47" t="str">
-        <f>A242</f>
-        <v>Retatrutide</v>
+        <v>358</v>
+      </c>
+      <c r="C242" s="47" t="s">
+        <v>1005</v>
       </c>
       <c r="D242" s="47" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="E242" s="47" t="s">
-        <v>783</v>
+        <v>1007</v>
       </c>
       <c r="F242" s="47" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G242" s="48" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A243" s="47" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="B243" s="47" t="s">
-        <v>358</v>
+        <v>284</v>
       </c>
       <c r="C243" s="47" t="s">
-        <v>1012</v>
+        <v>612</v>
       </c>
       <c r="D243" s="47" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E243" s="47" t="s">
-        <v>1014</v>
-      </c>
-      <c r="F243" s="47" t="s">
-        <v>290</v>
+        <v>613</v>
+      </c>
+      <c r="E243" s="47"/>
+      <c r="F243" s="63" t="s">
+        <v>1160</v>
       </c>
       <c r="G243" s="48" t="s">
         <v>289</v>
@@ -19246,20 +18996,22 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="47" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="B244" s="47" t="s">
-        <v>284</v>
+        <v>1010</v>
       </c>
       <c r="C244" s="47" t="s">
-        <v>617</v>
+        <v>1011</v>
       </c>
       <c r="D244" s="47" t="s">
-        <v>618</v>
-      </c>
-      <c r="E244" s="47"/>
+        <v>1012</v>
+      </c>
+      <c r="E244" s="47" t="s">
+        <v>1013</v>
+      </c>
       <c r="F244" s="47" t="s">
-        <v>1016</v>
+        <v>307</v>
       </c>
       <c r="G244" s="48" t="s">
         <v>289</v>
@@ -19267,22 +19019,22 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="47" t="s">
-        <v>1017</v>
+        <v>1000</v>
       </c>
       <c r="B245" s="47" t="s">
-        <v>1018</v>
+        <v>369</v>
       </c>
       <c r="C245" s="47" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="D245" s="47" t="s">
-        <v>1020</v>
+        <v>855</v>
       </c>
       <c r="E245" s="47" t="s">
-        <v>1021</v>
+        <v>714</v>
       </c>
       <c r="F245" s="47" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="G245" s="48" t="s">
         <v>289</v>
@@ -19290,22 +19042,22 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="47" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="B246" s="47" t="s">
-        <v>370</v>
+        <v>1016</v>
       </c>
       <c r="C246" s="47" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="D246" s="47" t="s">
-        <v>861</v>
+        <v>1018</v>
       </c>
       <c r="E246" s="47" t="s">
-        <v>720</v>
+        <v>323</v>
       </c>
       <c r="F246" s="47" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="G246" s="48" t="s">
         <v>289</v>
@@ -19313,22 +19065,22 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="47" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="B247" s="47" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C247" s="47" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D247" s="47" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E247" s="47" t="s">
-        <v>323</v>
+        <v>504</v>
       </c>
       <c r="F247" s="47" t="s">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="G247" s="48" t="s">
         <v>289</v>
@@ -19336,22 +19088,22 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="47" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B248" s="47" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C248" s="47" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="D248" s="47" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="E248" s="47" t="s">
-        <v>508</v>
+        <v>1026</v>
       </c>
       <c r="F248" s="47" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="G248" s="48" t="s">
         <v>289</v>
@@ -19359,22 +19111,22 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="47" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="B249" s="47" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C249" s="47" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D249" s="47" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="E249" s="47" t="s">
-        <v>1034</v>
+        <v>312</v>
       </c>
       <c r="F249" s="47" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="G249" s="48" t="s">
         <v>289</v>
@@ -19382,19 +19134,19 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="47" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B250" s="47" t="s">
-        <v>1036</v>
+        <v>309</v>
       </c>
       <c r="C250" s="47" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="D250" s="47" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E250" s="47" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F250" s="47" t="s">
         <v>290</v>
@@ -19405,22 +19157,23 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="47" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="B251" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="C251" s="47" t="s">
-        <v>1040</v>
+        <v>494</v>
+      </c>
+      <c r="C251" s="47" t="str">
+        <f>A251</f>
+        <v>Amycretin</v>
       </c>
       <c r="D251" s="47" t="s">
-        <v>1041</v>
+        <v>776</v>
       </c>
       <c r="E251" s="47" t="s">
-        <v>332</v>
+        <v>777</v>
       </c>
       <c r="F251" s="47" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G251" s="48" t="s">
         <v>289</v>
@@ -19428,20 +19181,19 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="47" t="s">
-        <v>1042</v>
+        <v>1003</v>
       </c>
       <c r="B252" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="C252" s="47" t="str">
-        <f>A252</f>
-        <v>Amycretin</v>
+        <v>410</v>
+      </c>
+      <c r="C252" s="47" t="s">
+        <v>1035</v>
       </c>
       <c r="D252" s="47" t="s">
-        <v>782</v>
+        <v>1004</v>
       </c>
       <c r="E252" s="47" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="F252" s="47" t="s">
         <v>307</v>
@@ -19452,22 +19204,22 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="47" t="s">
-        <v>1010</v>
+        <v>1036</v>
       </c>
       <c r="B253" s="47" t="s">
-        <v>412</v>
+        <v>303</v>
       </c>
       <c r="C253" s="47" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="D253" s="47" t="s">
-        <v>1011</v>
+        <v>519</v>
       </c>
       <c r="E253" s="47" t="s">
-        <v>771</v>
+        <v>520</v>
       </c>
       <c r="F253" s="47" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="G253" s="48" t="s">
         <v>289</v>
@@ -19475,22 +19227,22 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="47" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="B254" s="47" t="s">
         <v>303</v>
       </c>
       <c r="C254" s="47" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="D254" s="47" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
       <c r="E254" s="47" t="s">
-        <v>524</v>
+        <v>483</v>
       </c>
       <c r="F254" s="47" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="G254" s="48" t="s">
         <v>289</v>
@@ -19498,22 +19250,22 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="47" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="B255" s="47" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="C255" s="47" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D255" s="47" t="s">
-        <v>486</v>
+        <v>1041</v>
       </c>
       <c r="E255" s="47" t="s">
-        <v>487</v>
+        <v>349</v>
       </c>
       <c r="F255" s="47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G255" s="48" t="s">
         <v>289</v>
@@ -19521,22 +19273,22 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="47" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="B256" s="47" t="s">
-        <v>346</v>
+        <v>1043</v>
       </c>
       <c r="C256" s="47" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="D256" s="47" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E256" s="47" t="s">
-        <v>349</v>
+        <v>1045</v>
       </c>
       <c r="F256" s="47" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G256" s="48" t="s">
         <v>289</v>
@@ -19544,22 +19296,22 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="47" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="B257" s="47" t="s">
-        <v>1051</v>
+        <v>315</v>
       </c>
       <c r="C257" s="47" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D257" s="47" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E257" s="47" t="s">
-        <v>1053</v>
+        <v>343</v>
       </c>
       <c r="F257" s="47" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G257" s="48" t="s">
         <v>289</v>
@@ -19567,22 +19319,22 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="47" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="B258" s="47" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="C258" s="47" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="D258" s="47" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="E258" s="47" t="s">
-        <v>343</v>
+        <v>1052</v>
       </c>
       <c r="F258" s="47" t="s">
-        <v>297</v>
+        <v>1053</v>
       </c>
       <c r="G258" s="48" t="s">
         <v>289</v>
@@ -19590,22 +19342,20 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="47" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B259" s="47" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C259" s="47" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D259" s="47"/>
+      <c r="E259" s="47" t="s">
         <v>1057</v>
       </c>
-      <c r="B259" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="C259" s="47" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D259" s="47" t="s">
-        <v>1059</v>
-      </c>
-      <c r="E259" s="47" t="s">
-        <v>1060</v>
-      </c>
       <c r="F259" s="47" t="s">
-        <v>1061</v>
+        <v>344</v>
       </c>
       <c r="G259" s="48" t="s">
         <v>289</v>
@@ -19613,20 +19363,20 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="47" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="B260" s="47" t="s">
-        <v>1063</v>
+        <v>315</v>
       </c>
       <c r="C260" s="47" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="D260" s="47"/>
       <c r="E260" s="47" t="s">
-        <v>1065</v>
+        <v>498</v>
       </c>
       <c r="F260" s="47" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G260" s="48" t="s">
         <v>289</v>
@@ -19634,20 +19384,22 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="47" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="B261" s="47" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="C261" s="47" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D261" s="47"/>
+        <v>1061</v>
+      </c>
+      <c r="D261" s="47" t="s">
+        <v>1062</v>
+      </c>
       <c r="E261" s="47" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="F261" s="47" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="G261" s="48" t="s">
         <v>289</v>
@@ -19655,22 +19407,22 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="47" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="B262" s="47" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="C262" s="47" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="D262" s="47" t="s">
-        <v>1070</v>
+        <v>569</v>
       </c>
       <c r="E262" s="47" t="s">
-        <v>547</v>
+        <v>388</v>
       </c>
       <c r="F262" s="47" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G262" s="48" t="s">
         <v>289</v>
@@ -19678,22 +19430,22 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="47" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B263" s="47" t="s">
-        <v>320</v>
+        <v>1066</v>
       </c>
       <c r="C263" s="47" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="D263" s="47" t="s">
-        <v>573</v>
+        <v>1068</v>
       </c>
       <c r="E263" s="47" t="s">
-        <v>390</v>
+        <v>819</v>
       </c>
       <c r="F263" s="47" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="G263" s="48" t="s">
         <v>289</v>
@@ -19701,19 +19453,19 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="47" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B264" s="47" t="s">
-        <v>1074</v>
+        <v>303</v>
       </c>
       <c r="C264" s="47" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="D264" s="47" t="s">
-        <v>1076</v>
+        <v>539</v>
       </c>
       <c r="E264" s="47" t="s">
-        <v>825</v>
+        <v>540</v>
       </c>
       <c r="F264" s="47" t="s">
         <v>362</v>
@@ -19724,22 +19476,22 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="47" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="B265" s="47" t="s">
-        <v>303</v>
+        <v>1072</v>
       </c>
       <c r="C265" s="47" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="D265" s="47" t="s">
-        <v>543</v>
+        <v>1073</v>
       </c>
       <c r="E265" s="47" t="s">
-        <v>544</v>
+        <v>1074</v>
       </c>
       <c r="F265" s="47" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="G265" s="48" t="s">
         <v>289</v>
@@ -19747,22 +19499,22 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="47" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B266" s="47" t="s">
-        <v>1080</v>
+        <v>340</v>
       </c>
       <c r="C266" s="47" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D266" s="47" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="E266" s="47" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="F266" s="47" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G266" s="48" t="s">
         <v>289</v>
@@ -19770,22 +19522,20 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="47" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="B267" s="47" t="s">
-        <v>340</v>
+        <v>1079</v>
       </c>
       <c r="C267" s="47" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D267" s="47" t="s">
-        <v>1084</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="D267" s="47"/>
       <c r="E267" s="47" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F267" s="47" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="G267" s="48" t="s">
         <v>289</v>
@@ -19793,20 +19543,20 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="47" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="B268" s="47" t="s">
-        <v>1087</v>
+        <v>410</v>
       </c>
       <c r="C268" s="47" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D268" s="47"/>
-      <c r="E268" s="47" t="s">
-        <v>1089</v>
-      </c>
+        <v>1083</v>
+      </c>
+      <c r="D268" s="47" t="s">
+        <v>896</v>
+      </c>
+      <c r="E268" s="47"/>
       <c r="F268" s="47" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G268" s="48" t="s">
         <v>289</v>
@@ -19814,18 +19564,20 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="47" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="B269" s="47" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C269" s="47" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="D269" s="47" t="s">
-        <v>902</v>
-      </c>
-      <c r="E269" s="47"/>
+        <v>1085</v>
+      </c>
+      <c r="E269" s="47" t="s">
+        <v>620</v>
+      </c>
       <c r="F269" s="47" t="s">
         <v>344</v>
       </c>
@@ -19835,22 +19587,22 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="47" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="B270" s="47" t="s">
-        <v>412</v>
+        <v>309</v>
       </c>
       <c r="C270" s="47" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="D270" s="47" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E270" s="47" t="s">
-        <v>625</v>
+        <v>332</v>
       </c>
       <c r="F270" s="47" t="s">
-        <v>344</v>
+        <v>290</v>
       </c>
       <c r="G270" s="48" t="s">
         <v>289</v>
@@ -19858,22 +19610,22 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="47" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="B271" s="47" t="s">
-        <v>309</v>
+        <v>538</v>
       </c>
       <c r="C271" s="47" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D271" s="47" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="E271" s="47" t="s">
-        <v>332</v>
+        <v>1091</v>
       </c>
       <c r="F271" s="47" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="G271" s="48" t="s">
         <v>289</v>
@@ -19881,22 +19633,20 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="47" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="B272" s="47" t="s">
-        <v>542</v>
+        <v>1093</v>
       </c>
       <c r="C272" s="47" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D272" s="47" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E272" s="47" t="s">
-        <v>1099</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E272" s="47"/>
       <c r="F272" s="47" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G272" s="48" t="s">
         <v>289</v>
@@ -19904,20 +19654,22 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="47" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="B273" s="47" t="s">
-        <v>1101</v>
+        <v>410</v>
       </c>
       <c r="C273" s="47" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="D273" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="E273" s="47"/>
+        <v>684</v>
+      </c>
+      <c r="E273" s="47" t="s">
+        <v>685</v>
+      </c>
       <c r="F273" s="47" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="G273" s="48" t="s">
         <v>289</v>
@@ -19925,22 +19677,20 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="47" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B274" s="47" t="s">
-        <v>412</v>
+        <v>1098</v>
       </c>
       <c r="C274" s="47" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="D274" s="47" t="s">
-        <v>690</v>
-      </c>
-      <c r="E274" s="47" t="s">
-        <v>691</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="E274" s="47"/>
       <c r="F274" s="47" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="G274" s="48" t="s">
         <v>289</v>
@@ -19948,20 +19698,20 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="47" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="B275" s="47" t="s">
-        <v>1106</v>
+        <v>812</v>
       </c>
       <c r="C275" s="47" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="D275" s="47" t="s">
-        <v>735</v>
+        <v>1102</v>
       </c>
       <c r="E275" s="47"/>
-      <c r="F275" s="47" t="s">
-        <v>290</v>
+      <c r="F275" s="64" t="s">
+        <v>1160</v>
       </c>
       <c r="G275" s="48" t="s">
         <v>289</v>
@@ -19969,20 +19719,20 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="47" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B276" s="47" t="s">
-        <v>818</v>
+        <v>335</v>
       </c>
       <c r="C276" s="47" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="D276" s="47" t="s">
-        <v>1110</v>
+        <v>925</v>
       </c>
       <c r="E276" s="47"/>
       <c r="F276" s="47" t="s">
-        <v>423</v>
+        <v>1105</v>
       </c>
       <c r="G276" s="48" t="s">
         <v>289</v>
@@ -19990,20 +19740,20 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="47" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B277" s="47" t="s">
-        <v>335</v>
+        <v>1107</v>
       </c>
       <c r="C277" s="47" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="D277" s="47" t="s">
-        <v>932</v>
+        <v>1108</v>
       </c>
       <c r="E277" s="47"/>
       <c r="F277" s="47" t="s">
-        <v>1113</v>
+        <v>290</v>
       </c>
       <c r="G277" s="48" t="s">
         <v>289</v>
@@ -20011,20 +19761,22 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="47" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B278" s="47" t="s">
-        <v>1115</v>
+        <v>352</v>
       </c>
       <c r="C278" s="47" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D278" s="47" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E278" s="47"/>
+        <v>995</v>
+      </c>
+      <c r="E278" s="47" t="s">
+        <v>765</v>
+      </c>
       <c r="F278" s="47" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G278" s="48" t="s">
         <v>289</v>
@@ -20032,22 +19784,22 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="47" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="B279" s="47" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C279" s="47" t="s">
-        <v>1118</v>
+        <v>1111</v>
       </c>
       <c r="D279" s="47" t="s">
-        <v>1002</v>
+        <v>1112</v>
       </c>
       <c r="E279" s="47" t="s">
-        <v>771</v>
+        <v>338</v>
       </c>
       <c r="F279" s="47" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="G279" s="48" t="s">
         <v>289</v>
@@ -20055,22 +19807,20 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="47" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="B280" s="47" t="s">
-        <v>370</v>
+        <v>1114</v>
       </c>
       <c r="C280" s="47" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D280" s="47" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E280" s="47" t="s">
-        <v>338</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="E280" s="47"/>
       <c r="F280" s="47" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="G280" s="48" t="s">
         <v>289</v>
@@ -20078,20 +19828,20 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="47" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B281" s="47" t="s">
-        <v>1122</v>
+        <v>335</v>
       </c>
       <c r="C281" s="47" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="D281" s="47" t="s">
-        <v>286</v>
+        <v>826</v>
       </c>
       <c r="E281" s="47"/>
       <c r="F281" s="47" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="G281" s="48" t="s">
         <v>289</v>
@@ -20099,20 +19849,20 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="47" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B282" s="47" t="s">
-        <v>335</v>
+        <v>941</v>
       </c>
       <c r="C282" s="47" t="s">
-        <v>1125</v>
+        <v>1118</v>
       </c>
       <c r="D282" s="47" t="s">
-        <v>832</v>
+        <v>1119</v>
       </c>
       <c r="E282" s="47"/>
       <c r="F282" s="47" t="s">
-        <v>362</v>
+        <v>290</v>
       </c>
       <c r="G282" s="48" t="s">
         <v>289</v>
@@ -20120,20 +19870,22 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="47" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="B283" s="47" t="s">
-        <v>948</v>
+        <v>836</v>
       </c>
       <c r="C283" s="47" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="D283" s="47" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E283" s="47"/>
+        <v>286</v>
+      </c>
+      <c r="E283" s="47" t="s">
+        <v>317</v>
+      </c>
       <c r="F283" s="47" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G283" s="48" t="s">
         <v>289</v>
@@ -20141,22 +19893,22 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="47" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B284" s="47" t="s">
-        <v>842</v>
+        <v>494</v>
       </c>
       <c r="C284" s="47" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="D284" s="47" t="s">
-        <v>286</v>
+        <v>1124</v>
       </c>
       <c r="E284" s="47" t="s">
-        <v>317</v>
+        <v>540</v>
       </c>
       <c r="F284" s="47" t="s">
-        <v>288</v>
+        <v>362</v>
       </c>
       <c r="G284" s="48" t="s">
         <v>289</v>
@@ -20164,22 +19916,18 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="47" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="B285" s="47" t="s">
-        <v>498</v>
+        <v>1126</v>
       </c>
       <c r="C285" s="47" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D285" s="47" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E285" s="47" t="s">
-        <v>544</v>
-      </c>
+        <v>1127</v>
+      </c>
+      <c r="D285" s="47"/>
+      <c r="E285" s="47"/>
       <c r="F285" s="47" t="s">
-        <v>362</v>
+        <v>288</v>
       </c>
       <c r="G285" s="48" t="s">
         <v>289</v>
@@ -20187,18 +19935,22 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="47" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="B286" s="47" t="s">
-        <v>1134</v>
+        <v>494</v>
       </c>
       <c r="C286" s="47" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D286" s="47"/>
-      <c r="E286" s="47"/>
+        <v>524</v>
+      </c>
+      <c r="D286" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="E286" s="47" t="s">
+        <v>306</v>
+      </c>
       <c r="F286" s="47" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="G286" s="48" t="s">
         <v>289</v>
@@ -20206,22 +19958,21 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="47" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="B287" s="47" t="s">
-        <v>498</v>
-      </c>
-      <c r="C287" s="47" t="s">
-        <v>528</v>
+        <v>1130</v>
+      </c>
+      <c r="C287" s="47" t="str">
+        <f>A287</f>
+        <v>APG-777</v>
       </c>
       <c r="D287" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="E287" s="47" t="s">
-        <v>306</v>
-      </c>
+        <v>1131</v>
+      </c>
+      <c r="E287" s="47"/>
       <c r="F287" s="47" t="s">
-        <v>307</v>
+        <v>719</v>
       </c>
       <c r="G287" s="48" t="s">
         <v>289</v>
@@ -20229,21 +19980,20 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="47" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="B288" s="47" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C288" s="47" t="str">
-        <f>A288</f>
-        <v>APG-777</v>
+        <v>494</v>
+      </c>
+      <c r="C288" s="47" t="s">
+        <v>1133</v>
       </c>
       <c r="D288" s="47" t="s">
-        <v>1139</v>
+        <v>305</v>
       </c>
       <c r="E288" s="47"/>
       <c r="F288" s="47" t="s">
-        <v>725</v>
+        <v>307</v>
       </c>
       <c r="G288" s="48" t="s">
         <v>289</v>
@@ -20251,20 +20001,22 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="47" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="B289" s="47" t="s">
-        <v>498</v>
+        <v>335</v>
       </c>
       <c r="C289" s="47" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="D289" s="47" t="s">
-        <v>305</v>
-      </c>
-      <c r="E289" s="47"/>
+        <v>1135</v>
+      </c>
+      <c r="E289" s="47" t="s">
+        <v>859</v>
+      </c>
       <c r="F289" s="47" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="G289" s="48" t="s">
         <v>289</v>
@@ -20272,22 +20024,20 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="47" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="B290" s="47" t="s">
-        <v>335</v>
+        <v>836</v>
       </c>
       <c r="C290" s="47" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D290" s="47" t="s">
-        <v>1143</v>
-      </c>
+        <v>1137</v>
+      </c>
+      <c r="D290" s="47"/>
       <c r="E290" s="47" t="s">
-        <v>865</v>
+        <v>1138</v>
       </c>
       <c r="F290" s="47" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="G290" s="48" t="s">
         <v>289</v>
@@ -20295,20 +20045,20 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="47" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="B291" s="47" t="s">
-        <v>842</v>
+        <v>1140</v>
       </c>
       <c r="C291" s="47" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="D291" s="47"/>
       <c r="E291" s="47" t="s">
-        <v>1146</v>
+        <v>1081</v>
       </c>
       <c r="F291" s="47" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G291" s="48" t="s">
         <v>289</v>
@@ -20316,20 +20066,20 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="47" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="B292" s="47" t="s">
-        <v>1148</v>
+        <v>284</v>
       </c>
       <c r="C292" s="47" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="D292" s="47"/>
       <c r="E292" s="47" t="s">
-        <v>1089</v>
+        <v>1144</v>
       </c>
       <c r="F292" s="47" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G292" s="48" t="s">
         <v>289</v>
@@ -20337,20 +20087,20 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="47" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="B293" s="47" t="s">
-        <v>284</v>
+        <v>812</v>
       </c>
       <c r="C293" s="47" t="s">
-        <v>1151</v>
+        <v>813</v>
       </c>
       <c r="D293" s="47"/>
       <c r="E293" s="47" t="s">
-        <v>1152</v>
+        <v>814</v>
       </c>
       <c r="F293" s="47" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G293" s="48" t="s">
         <v>289</v>
@@ -20358,20 +20108,20 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="47" t="s">
-        <v>1153</v>
+        <v>1146</v>
       </c>
       <c r="B294" s="47" t="s">
-        <v>818</v>
+        <v>1098</v>
       </c>
       <c r="C294" s="47" t="s">
-        <v>819</v>
-      </c>
-      <c r="D294" s="47"/>
-      <c r="E294" s="47" t="s">
-        <v>820</v>
-      </c>
+        <v>1146</v>
+      </c>
+      <c r="D294" s="47" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E294" s="47"/>
       <c r="F294" s="47" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="G294" s="48" t="s">
         <v>289</v>
@@ -20379,18 +20129,18 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="47" t="s">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="B295" s="47" t="s">
-        <v>1106</v>
+        <v>369</v>
       </c>
       <c r="C295" s="47" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D295" s="47" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E295" s="47"/>
+        <v>1148</v>
+      </c>
+      <c r="D295" s="47"/>
+      <c r="E295" s="47" t="s">
+        <v>295</v>
+      </c>
       <c r="F295" s="47" t="s">
         <v>296</v>
       </c>
@@ -20400,20 +20150,22 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="47" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="B296" s="47" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="C296" s="47" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D296" s="47"/>
+        <v>1150</v>
+      </c>
+      <c r="D296" s="47" t="s">
+        <v>1135</v>
+      </c>
       <c r="E296" s="47" t="s">
-        <v>295</v>
+        <v>859</v>
       </c>
       <c r="F296" s="47" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="G296" s="48" t="s">
         <v>289</v>
@@ -20421,22 +20173,22 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="47" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="B297" s="47" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C297" s="47" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="D297" s="47" t="s">
-        <v>1143</v>
+        <v>789</v>
       </c>
       <c r="E297" s="47" t="s">
-        <v>865</v>
+        <v>790</v>
       </c>
       <c r="F297" s="47" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
       <c r="G297" s="48" t="s">
         <v>289</v>
@@ -20444,22 +20196,20 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="47" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="B298" s="47" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C298" s="47" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D298" s="47" t="s">
-        <v>795</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="D298" s="47"/>
       <c r="E298" s="47" t="s">
-        <v>796</v>
+        <v>859</v>
       </c>
       <c r="F298" s="47" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="G298" s="48" t="s">
         <v>289</v>
@@ -20467,52 +20217,31 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="47" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="B299" s="47" t="s">
-        <v>335</v>
+        <v>410</v>
       </c>
       <c r="C299" s="47" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D299" s="47"/>
+        <v>1155</v>
+      </c>
+      <c r="D299" s="47" t="s">
+        <v>1135</v>
+      </c>
       <c r="E299" s="47" t="s">
-        <v>865</v>
+        <v>1156</v>
       </c>
       <c r="F299" s="47" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="G299" s="48" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A300" s="47" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B300" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="C300" s="47" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D300" s="47" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E300" s="47" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F300" s="47" t="s">
-        <v>296</v>
-      </c>
-      <c r="G300" s="48" t="s">
-        <v>289</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G300" xr:uid="{F5839967-2716-4DDD-A47A-D3C8DFA5C5B1}"/>
+  <autoFilter ref="A1:G299" xr:uid="{F5839967-2716-4DDD-A47A-D3C8DFA5C5B1}"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A300">
+  <conditionalFormatting sqref="A2:A299">
     <cfRule type="expression" dxfId="83" priority="57" stopIfTrue="1">
       <formula>F2="精神"</formula>
     </cfRule>
@@ -20556,7 +20285,7 @@
       <formula>F2="罕见病"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B300">
+  <conditionalFormatting sqref="B2:B299">
     <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
       <formula>F2="精神"</formula>
     </cfRule>
@@ -20600,7 +20329,7 @@
       <formula>F2="罕见病"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C300">
+  <conditionalFormatting sqref="C2:C299">
     <cfRule type="expression" dxfId="55" priority="43" stopIfTrue="1">
       <formula>F2="精神"</formula>
     </cfRule>
@@ -20644,7 +20373,7 @@
       <formula>F2="罕见病"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D300">
+  <conditionalFormatting sqref="D2:D299">
     <cfRule type="expression" dxfId="41" priority="29" stopIfTrue="1">
       <formula>F2="精神"</formula>
     </cfRule>
@@ -20688,7 +20417,7 @@
       <formula>F2="罕见病"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E300">
+  <conditionalFormatting sqref="E2:E299">
     <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
       <formula>F2="精神"</formula>
     </cfRule>
@@ -20732,7 +20461,7 @@
       <formula>F2="罕见病"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F300">
+  <conditionalFormatting sqref="F2:F299">
     <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>F2="精神"</formula>
     </cfRule>

--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\策略会&amp;整体行业深度报告\2013-2032 Top100\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7719CCBB-3C02-4237-BBED-61CC5DF25EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100253F2-97ED-4144-9A23-9705BAF047A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{68540D6F-E25A-4268-8458-C93AFA6DED9E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{68540D6F-E25A-4268-8458-C93AFA6DED9E}"/>
   </bookViews>
   <sheets>
     <sheet name="时间序列列表" sheetId="1" r:id="rId1"/>
@@ -5703,7 +5703,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5783,6 +5783,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -5972,7 +5979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6130,11 +6137,315 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="98">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9DF3B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE9E9E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCB91FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3E8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEEB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF91D5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8FAE1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2C3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF7E1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9191"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC3C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF91F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3E8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEEB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF91D5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8FAE1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE9E9E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9DF3B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF91F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC3C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9191"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF7E1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2C3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCB91FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF7E1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEEB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9191"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC3C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF91F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9DF3B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2C3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCB91FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3E8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF91D5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8FAE1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE9E9E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9DF3B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6153,13 +6464,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFD8FAE1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF91D5FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6229,7 +6533,91 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF91D5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF9DF3B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF91F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC3C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF7E1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEEB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2C3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCB91FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3E8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF91D5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8FAE1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE9E9E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6243,7 +6631,91 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE9E9E9"/>
+          <bgColor rgb="FFFF9191"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC8C8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF91F7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC3C3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9191"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF7E1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEEB9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE2C3FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCB91FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9DF3B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC3E8FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF91D5FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6257,469 +6729,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF91D5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC3E8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB91FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2C3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEEB9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF7E1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9191"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC3C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF91F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9DF3B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFE9E9E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8FAE1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF91D5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC3E8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB91FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2C3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEEB9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF7E1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9191"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC3C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF91F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9DF3B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9E9E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8FAE1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF91D5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC3E8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB91FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2C3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEEB9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF7E1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9191"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC3C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF91F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9DF3B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9E9E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8FAE1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF91D5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC3E8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB91FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2C3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEEB9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF7E1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9191"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC3C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF91F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9DF3B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC8C8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE9E9E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD8FAE1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF91D5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC3E8FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB91FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2C3FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEEB9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF7E1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9191"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC3C3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF91F7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9DF3B4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7133,8 +7143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C35534-39AE-476B-A3E3-9E67F9F53582}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7778,11 +7788,11 @@
       <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
+      <c r="G11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>21</v>
@@ -7840,11 +7850,11 @@
       <c r="F12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>31</v>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>25</v>
@@ -7902,11 +7912,11 @@
       <c r="F13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>31</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>24</v>
@@ -7961,14 +7971,14 @@
       <c r="E14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>42</v>
+      <c r="F14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>3</v>
@@ -8024,13 +8034,13 @@
         <v>24</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>48</v>
@@ -8085,11 +8095,11 @@
       <c r="E16" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>47</v>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>48</v>
@@ -8147,8 +8157,8 @@
       <c r="E17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>53</v>
+      <c r="F17" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>54</v>
@@ -8206,11 +8216,11 @@
       <c r="D18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>41</v>
+      <c r="E18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>60</v>
@@ -8218,8 +8228,8 @@
       <c r="H18" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>35</v>
+      <c r="I18" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>48</v>
@@ -8268,11 +8278,11 @@
       <c r="D19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>60</v>
+      <c r="E19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>22</v>
@@ -8280,8 +8290,8 @@
       <c r="H19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="23" t="s">
-        <v>43</v>
+      <c r="I19" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>25</v>
@@ -8330,11 +8340,11 @@
       <c r="D20" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>42</v>
+      <c r="E20" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>48</v>
@@ -8342,8 +8352,8 @@
       <c r="H20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>12</v>
+      <c r="I20" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="J20" s="23" t="s">
         <v>43</v>
@@ -8392,11 +8402,11 @@
       <c r="D21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>16</v>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>49</v>
@@ -8404,8 +8414,8 @@
       <c r="H21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>67</v>
+      <c r="I21" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J21" s="27" t="s">
         <v>36</v>
@@ -8454,11 +8464,11 @@
       <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="27" t="s">
-        <v>46</v>
+      <c r="E22" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>72</v>
@@ -8466,8 +8476,8 @@
       <c r="H22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="27" t="s">
-        <v>36</v>
+      <c r="I22" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="J22" s="23" t="s">
         <v>31</v>
@@ -8516,11 +8526,11 @@
       <c r="D23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="13" t="s">
-        <v>52</v>
+      <c r="E23" s="27" t="s">
+        <v>46</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>53</v>
@@ -8528,8 +8538,8 @@
       <c r="H23" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="19" t="s">
-        <v>42</v>
+      <c r="I23" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>75</v>
@@ -8579,10 +8589,10 @@
         <v>30</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="G24" s="27" t="s">
         <v>36</v>
@@ -8590,8 +8600,8 @@
       <c r="H24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="11" t="s">
-        <v>47</v>
+      <c r="I24" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>54</v>
@@ -8640,17 +8650,17 @@
       <c r="D25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>52</v>
+      <c r="E25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G25" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>47</v>
+      <c r="H25" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>31</v>
@@ -8702,17 +8712,17 @@
       <c r="D26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>47</v>
+      <c r="E26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="H26" s="34" t="s">
-        <v>72</v>
+      <c r="H26" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>54</v>
@@ -8764,8 +8774,8 @@
       <c r="D27" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>84</v>
+      <c r="E27" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="F27" s="34" t="s">
         <v>72</v>
@@ -8773,8 +8783,8 @@
       <c r="G27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>58</v>
+      <c r="H27" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>13</v>
@@ -8826,8 +8836,8 @@
       <c r="D28" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>49</v>
+      <c r="E28" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>88</v>
@@ -8835,8 +8845,8 @@
       <c r="G28" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="23" t="s">
-        <v>43</v>
+      <c r="H28" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="I28" s="19" t="s">
         <v>57</v>
@@ -8888,23 +8898,23 @@
       <c r="D29" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>93</v>
+      <c r="E29" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>35</v>
+      <c r="G29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>58</v>
+      <c r="J29" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>95</v>
@@ -8950,23 +8960,23 @@
       <c r="D30" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>87</v>
+      <c r="E30" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>55</v>
+      <c r="G30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>58</v>
@@ -9012,23 +9022,23 @@
       <c r="D31" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="27" t="s">
-        <v>92</v>
+      <c r="E31" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="F31" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>22</v>
+      <c r="G31" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>47</v>
+        <v>95</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="K31" s="26" t="s">
         <v>96</v>
@@ -9074,20 +9084,20 @@
       <c r="D32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>72</v>
+      <c r="E32" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I32" s="19" t="s">
-        <v>95</v>
+        <v>37</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="J32" s="19" t="s">
         <v>66</v>
@@ -9136,20 +9146,20 @@
       <c r="D33" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="10" t="s">
-        <v>71</v>
+      <c r="E33" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>105</v>
+      <c r="G33" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>95</v>
@@ -9198,20 +9208,20 @@
       <c r="D34" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>42</v>
+      <c r="E34" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>102</v>
+      <c r="G34" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>56</v>
@@ -9258,22 +9268,22 @@
         <v>83</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>91</v>
+        <v>47</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>110</v>
+      <c r="G35" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>105</v>
@@ -9319,23 +9329,23 @@
       <c r="C36" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>59</v>
+      <c r="D36" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>91</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>13</v>
+      <c r="G36" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>68</v>
@@ -9381,23 +9391,23 @@
       <c r="C37" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>47</v>
+      <c r="D37" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="F37" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>68</v>
+      <c r="G37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="J37" s="24" t="s">
         <v>102</v>
@@ -9443,8 +9453,8 @@
       <c r="C38" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="28" t="s">
-        <v>108</v>
+      <c r="D38" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>102</v>
@@ -9452,20 +9462,20 @@
       <c r="F38" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G38" s="11" t="s">
-        <v>105</v>
+      <c r="G38" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="J38" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>115</v>
+      <c r="K38" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>82</v>
@@ -9505,8 +9515,8 @@
       <c r="C39" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>101</v>
+      <c r="D39" s="28" t="s">
+        <v>108</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>88</v>
@@ -9514,20 +9524,20 @@
       <c r="F39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>114</v>
+      <c r="G39" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="K39" s="30" t="s">
-        <v>63</v>
+      <c r="K39" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="L39" s="30" t="s">
         <v>63</v>
@@ -9567,8 +9577,8 @@
       <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="36" t="s">
-        <v>77</v>
+      <c r="D40" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>118</v>
@@ -9576,20 +9586,20 @@
       <c r="F40" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>28</v>
+      <c r="G40" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>55</v>
+        <v>68</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>10</v>
+      <c r="K40" s="30" t="s">
+        <v>63</v>
       </c>
       <c r="L40" s="19" t="s">
         <v>42</v>
@@ -9629,8 +9639,8 @@
       <c r="C41" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="19" t="s">
-        <v>86</v>
+      <c r="D41" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>30</v>
@@ -9638,20 +9648,20 @@
       <c r="F41" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>102</v>
+      <c r="I41" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J41" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>38</v>
@@ -9691,8 +9701,8 @@
       <c r="C42" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>118</v>
+      <c r="D42" s="19" t="s">
+        <v>86</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>83</v>
@@ -9700,20 +9710,20 @@
       <c r="F42" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J42" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>82</v>
+      <c r="G42" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="L42" s="24" t="s">
         <v>102</v>
@@ -9753,29 +9763,29 @@
       <c r="C43" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>88</v>
+      <c r="D43" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E43" s="28" t="s">
         <v>108</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>33</v>
+        <v>105</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>115</v>
@@ -9815,29 +9825,29 @@
       <c r="C44" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="24" t="s">
-        <v>102</v>
+      <c r="D44" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="E44" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>44</v>
+      <c r="F44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="L44" s="5" t="s">
         <v>114</v>
@@ -9877,29 +9887,29 @@
       <c r="C45" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>122</v>
+      <c r="D45" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>74</v>
+      <c r="F45" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>118</v>
+        <v>22</v>
+      </c>
+      <c r="J45" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>12</v>
@@ -9939,29 +9949,29 @@
       <c r="C46" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>43</v>
+      <c r="D46" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J46" s="23" t="s">
+      <c r="F46" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="K46" s="11" t="s">
-        <v>47</v>
+      <c r="I46" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="L46" s="19" t="s">
         <v>66</v>
@@ -10001,26 +10011,26 @@
       <c r="C47" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>93</v>
+      <c r="D47" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>66</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="I47" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="J47" s="30" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>123</v>
@@ -10063,26 +10073,26 @@
       <c r="C48" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>42</v>
+      <c r="D48" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" s="30" t="s">
+      <c r="F48" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H48" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>135</v>
+      <c r="G48" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="K48" s="30" t="s">
         <v>104</v>
@@ -10125,32 +10135,32 @@
       <c r="C49" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>116</v>
+      <c r="D49" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H49" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="J49" s="16" t="s">
-        <v>49</v>
+      <c r="F49" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="K49" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>118</v>
+      <c r="L49" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>115</v>
@@ -10187,32 +10197,32 @@
       <c r="C50" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D50" s="33" t="s">
-        <v>61</v>
+      <c r="D50" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F50" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I50" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>111</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="K50" s="26" t="s">
         <v>79</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="M50" s="17" t="s">
         <v>19</v>
@@ -10249,32 +10259,32 @@
       <c r="C51" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>127</v>
+      <c r="D51" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L51" s="30" t="s">
-        <v>104</v>
+      <c r="H51" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="M51" s="30" t="s">
         <v>104</v>
@@ -10311,32 +10321,32 @@
       <c r="C52" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="10" t="s">
-        <v>146</v>
+      <c r="D52" s="27" t="s">
+        <v>127</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J52" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>123</v>
+      <c r="F52" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K52" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L52" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="M52" s="28" t="s">
         <v>140</v>
@@ -10374,31 +10384,31 @@
         <v>102</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="G53" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I53" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="K53" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="L53" s="28" t="s">
-        <v>140</v>
+      <c r="F53" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="M53" s="19" t="s">
         <v>42</v>
@@ -10435,32 +10445,32 @@
       <c r="C54" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>104</v>
+      <c r="D54" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>47</v>
+      <c r="F54" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I54" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K54" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L54" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="M54" s="11" t="s">
         <v>112</v>
@@ -10497,29 +10507,29 @@
       <c r="C55" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>47</v>
+      <c r="D55" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>152</v>
+      <c r="F55" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="I55" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="J55" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K55" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J55" s="24" t="s">
         <v>154</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="L55" s="13" t="s">
         <v>155</v>
@@ -10565,23 +10575,23 @@
       <c r="E56" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="J56" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="K56" s="23" t="s">
-        <v>128</v>
+      <c r="F56" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="L56" s="27" t="s">
         <v>138</v>
@@ -10627,23 +10637,23 @@
       <c r="E57" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F57" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>139</v>
+      <c r="F57" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H57" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="K57" s="27" t="s">
+        <v>138</v>
       </c>
       <c r="L57" s="24" t="s">
         <v>136</v>
@@ -10689,23 +10699,23 @@
       <c r="E58" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F58" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="H58" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="I58" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="J58" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>138</v>
+      <c r="F58" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>141</v>
@@ -10751,23 +10761,23 @@
       <c r="E59" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="F59" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K59" s="26" t="s">
-        <v>97</v>
+      <c r="F59" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="L59" s="13" t="s">
         <v>103</v>
@@ -10813,23 +10823,23 @@
       <c r="E60" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>175</v>
+      <c r="F60" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J60" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="L60" s="27" t="s">
         <v>106</v>
@@ -10875,23 +10885,23 @@
       <c r="E61" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="H61" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J61" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>39</v>
+      <c r="F61" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="L61" s="23" t="s">
         <v>128</v>
@@ -10937,23 +10947,23 @@
       <c r="E62" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" s="23" t="s">
+      <c r="F62" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="H62" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>135</v>
+      <c r="G62" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K62" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>39</v>
@@ -10999,23 +11009,23 @@
       <c r="E63" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F63" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="G63" s="19" t="s">
+      <c r="F63" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="K63" s="28" t="s">
-        <v>140</v>
+      <c r="I63" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="L63" s="11" t="s">
         <v>137</v>
@@ -11061,23 +11071,23 @@
       <c r="E64" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I64" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K64" s="16" t="s">
-        <v>38</v>
+      <c r="F64" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K64" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>18</v>
@@ -11123,23 +11133,23 @@
       <c r="E65" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F65" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J65" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>103</v>
+      <c r="F65" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I65" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="L65" s="19" t="s">
         <v>135</v>
@@ -11185,26 +11195,26 @@
       <c r="E66" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F66" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I66" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>47</v>
+      <c r="F66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K66" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L66" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="M66" s="19" t="s">
         <v>135</v>
@@ -11244,29 +11254,29 @@
       <c r="D67" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E67" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G67" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="I67" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K67" s="24" t="s">
-        <v>136</v>
+      <c r="E67" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J67" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="M67" s="10" t="s">
         <v>150</v>
@@ -11306,32 +11316,32 @@
       <c r="D68" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F68" s="27" t="s">
+      <c r="E68" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="G68" s="13" t="s">
-        <v>122</v>
+      <c r="F68" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>179</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J68" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="K68" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="L68" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>139</v>
+        <v>115</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="N68" s="43" t="s">
         <v>179</v>
@@ -11368,32 +11378,32 @@
       <c r="D69" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E69" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G69" s="43" t="s">
+      <c r="E69" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K69" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>111</v>
+      <c r="L69" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>139</v>
@@ -11430,32 +11440,32 @@
       <c r="D70" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E70" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>74</v>
+      <c r="E70" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H70" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="J70" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="K70" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M70" s="28" t="s">
-        <v>138</v>
+        <v>20</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="N70" s="28" t="s">
         <v>138</v>
@@ -11492,32 +11502,32 @@
       <c r="D71" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="H71" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="L71" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="M71" s="12" t="s">
-        <v>171</v>
+      <c r="J71" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K71" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M71" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>12</v>
@@ -11555,31 +11565,31 @@
         <v>202</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>160</v>
+        <v>65</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J72" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K72" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L72" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>123</v>
+      <c r="J72" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L72" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="N72" s="19" t="s">
         <v>180</v>
@@ -11616,32 +11626,32 @@
       <c r="D73" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="E73" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K73" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L73" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="M73" s="6" t="s">
+      <c r="E73" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I73" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="6" t="s">
         <v>59</v>
+      </c>
+      <c r="L73" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>123</v>
       </c>
       <c r="N73" s="4" t="s">
         <v>175</v>
@@ -11678,32 +11688,32 @@
       <c r="D74" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E74" s="27" t="s">
+      <c r="E74" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="I74" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="F74" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I74" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K74" s="6" t="s">
+      <c r="J74" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="M74" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="L74" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="M74" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="N74" s="26" t="s">
         <v>181</v>
@@ -11740,35 +11750,35 @@
       <c r="D75" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="43" t="s">
-        <v>179</v>
+      <c r="E75" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G75" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H75" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="I75" s="28" t="s">
-        <v>138</v>
+        <v>153</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I75" s="27" t="s">
+        <v>170</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="L75" s="4" t="s">
-        <v>175</v>
+        <v>153</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="M75" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N75" s="27" t="s">
-        <v>203</v>
+      <c r="N75" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="O75" s="4" t="s">
         <v>139</v>
@@ -11802,35 +11812,35 @@
       <c r="D76" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>174</v>
+      <c r="E76" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>135</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I76" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="J76" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K76" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L76" s="11" t="s">
-        <v>112</v>
+      <c r="I76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L76" s="34" t="s">
+        <v>72</v>
       </c>
       <c r="M76" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N76" s="11" t="s">
-        <v>196</v>
+      <c r="N76" s="27" t="s">
+        <v>203</v>
       </c>
       <c r="O76" s="27" t="s">
         <v>203</v>
@@ -11864,35 +11874,35 @@
       <c r="D77" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E77" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="F77" s="13" t="s">
+      <c r="E77" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="G77" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="H77" s="5" t="s">
+      <c r="F77" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K77" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K77" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="L77" s="34" t="s">
-        <v>72</v>
+      <c r="L77" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N77" s="26" t="s">
-        <v>51</v>
+        <v>196</v>
+      </c>
+      <c r="N77" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="O77" s="24" t="s">
         <v>188</v>
@@ -11926,35 +11936,35 @@
       <c r="D78" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E78" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>161</v>
+      <c r="E78" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F78" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L78" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K78" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="M78" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="N78" s="19" t="s">
-        <v>178</v>
+      <c r="L78" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N78" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="O78" s="4" t="s">
         <v>175</v>
@@ -11988,35 +11998,35 @@
       <c r="D79" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H79" s="13" t="s">
-        <v>56</v>
+      <c r="E79" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L79" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N79" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K79" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M79" s="45" t="s">
         <v>210</v>
+      </c>
+      <c r="N79" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="O79" s="11" t="s">
         <v>196</v>
@@ -12051,34 +12061,34 @@
         <v>204</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F80" s="13" t="s">
-        <v>101</v>
+        <v>153</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="I80" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="I80" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L80" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K80" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="L80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M80" s="45" t="s">
+      <c r="M80" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="N80" s="45" t="s">
         <v>210</v>
-      </c>
-      <c r="N80" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="O80" s="34" t="s">
         <v>165</v>
@@ -12112,35 +12122,35 @@
       <c r="D81" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F81" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H81" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="I81" s="43" t="s">
-        <v>179</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>206</v>
+      <c r="I81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J81" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="L81" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="M81" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="N81" s="6" t="s">
-        <v>223</v>
+      <c r="N81" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="O81" s="13" t="s">
         <v>48</v>
@@ -12174,35 +12184,35 @@
       <c r="D82" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F82" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>13</v>
+      <c r="E82" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J82" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="L82" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N82" s="4" t="s">
-        <v>153</v>
+      <c r="I82" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L82" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="O82" s="30" t="s">
         <v>132</v>
@@ -12236,35 +12246,35 @@
       <c r="D83" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G83" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="I83" s="11" t="s">
+      <c r="E83" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G83" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="J83" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="K83" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L83" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="M83" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="N83" s="24" t="s">
-        <v>188</v>
+      <c r="K83" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="M83" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="O83" s="19" t="s">
         <v>42</v>
@@ -12299,34 +12309,34 @@
         <v>179</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="G84" s="28" t="s">
-        <v>138</v>
+        <v>169</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="L84" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="M84" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I84" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="J84" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="N84" s="5" t="s">
-        <v>142</v>
+      <c r="K84" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L84" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N84" s="24" t="s">
+        <v>188</v>
       </c>
       <c r="O84" s="45" t="s">
         <v>210</v>
@@ -12360,35 +12370,35 @@
       <c r="D85" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E85" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I85" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="J85" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="K85" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="L85" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N85" s="30" t="s">
-        <v>132</v>
+      <c r="E85" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I85" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="J85" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="K85" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M85" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="O85" s="19" t="s">
         <v>66</v>
@@ -12422,35 +12432,35 @@
       <c r="D86" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E86" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F86" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="G86" s="27" t="s">
-        <v>232</v>
+      <c r="E86" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="I86" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="J86" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="K86" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="L86" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="M86" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N86" s="11" t="s">
-        <v>28</v>
+        <v>141</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J86" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="K86" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L86" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="N86" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="O86" s="11" t="s">
         <v>28</v>
@@ -12484,35 +12494,35 @@
       <c r="D87" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E87" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I87" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J87" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="K87" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L87" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="N87" s="34" t="s">
-        <v>165</v>
+      <c r="E87" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H87" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="M87" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="N87" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="O87" s="4" t="s">
         <v>153</v>
@@ -12546,35 +12556,35 @@
       <c r="D88" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E88" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="H88" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>174</v>
+      <c r="E88" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="M88" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>157</v>
+        <v>91</v>
+      </c>
+      <c r="K88" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="M88" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N88" s="34" t="s">
+        <v>165</v>
       </c>
       <c r="O88" s="17" t="s">
         <v>214</v>
@@ -12608,35 +12618,35 @@
       <c r="D89" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="H89" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="I89" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="J89" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="K89" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="L89" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="M89" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="N89" s="11" t="s">
-        <v>98</v>
+      <c r="E89" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H89" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="I89" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L89" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="M89" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="O89" s="34" t="s">
         <v>224</v>
@@ -12670,35 +12680,35 @@
       <c r="D90" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E90" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G90" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="H90" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="I90" s="34" t="s">
+      <c r="E90" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H90" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="J90" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="K90" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L90" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="M90" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N90" s="2" t="s">
-        <v>85</v>
+      <c r="I90" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M90" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="N90" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>12</v>
@@ -12732,35 +12742,35 @@
       <c r="D91" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F91" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H91" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="I91" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="J91" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="K91" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L91" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="M91" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="N91" s="34" t="s">
+      <c r="E91" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J91" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="K91" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M91" s="34" t="s">
         <v>224</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="O91" s="4" t="s">
         <v>157</v>
@@ -12794,35 +12804,35 @@
       <c r="D92" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E92" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G92" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="J92" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M92" s="34" t="s">
+      <c r="E92" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F92" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I92" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="K92" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="L92" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M92" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="N92" s="34" t="s">
         <v>224</v>
-      </c>
-      <c r="N92" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="O92" s="6" t="s">
         <v>223</v>
@@ -12856,35 +12866,35 @@
       <c r="D93" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="E93" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F93" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="G93" s="10" t="s">
+      <c r="E93" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I93" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="J93" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K93" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="H93" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="I93" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="J93" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="K93" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="L93" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="M93" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="N93" s="6" t="s">
-        <v>59</v>
+      <c r="L93" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="M93" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="N93" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="O93" s="43" t="s">
         <v>179</v>
@@ -12918,35 +12928,35 @@
       <c r="D94" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="E94" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="F94" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>99</v>
+      <c r="E94" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I94" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="J94" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="K94" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="L94" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="M94" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="N94" s="17" t="s">
+      <c r="I94" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M94" s="17" t="s">
         <v>214</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="O94" s="6" t="s">
         <v>166</v>
@@ -12980,35 +12990,35 @@
       <c r="D95" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H95" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="I95" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="J95" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="K95" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="M95" s="17" t="s">
+      <c r="E95" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="H95" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I95" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="J95" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L95" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="N95" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="N95" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="O95" s="12" t="s">
         <v>25</v>
@@ -13042,32 +13052,32 @@
       <c r="D96" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E96" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="H96" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="I96" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="J96" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="K96" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L96" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="M96" s="12" t="s">
-        <v>263</v>
+      <c r="E96" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G96" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J96" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K96" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M96" s="34" t="s">
+        <v>165</v>
       </c>
       <c r="N96" s="5" t="s">
         <v>206</v>
@@ -13101,41 +13111,41 @@
       <c r="C97" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="G97" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I97" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="J97" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="K97" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M97" s="34" t="s">
-        <v>165</v>
+      <c r="D97" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="F97" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K97" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="N97" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="O97" s="19" t="s">
-        <v>262</v>
+      <c r="O97" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="P97" s="10" t="s">
         <v>253</v>
@@ -13163,41 +13173,41 @@
       <c r="C98" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D98" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="F98" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="G98" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K98" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L98" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="M98" s="12" t="s">
-        <v>257</v>
+      <c r="D98" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="L98" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="M98" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="N98" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="O98" s="12" t="s">
-        <v>215</v>
+      <c r="O98" s="19" t="s">
+        <v>262</v>
       </c>
       <c r="P98" s="13" t="s">
         <v>258</v>
@@ -13225,41 +13235,41 @@
       <c r="C99" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="D99" s="26" t="s">
-        <v>201</v>
+      <c r="D99" s="28" t="s">
+        <v>138</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="J99" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="K99" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="L99" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I99" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J99" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K99" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="M99" s="19" t="s">
-        <v>249</v>
+      <c r="L99" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="N99" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="O99" s="13" t="s">
-        <v>258</v>
+      <c r="O99" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="P99" s="6" t="s">
         <v>223</v>
@@ -13287,41 +13297,41 @@
       <c r="C100" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="D100" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="I100" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="J100" s="19" t="s">
-        <v>124</v>
+      <c r="D100" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G100" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I100" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J100" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="K100" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="L100" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="M100" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="N100" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O100" s="10" t="s">
-        <v>253</v>
+        <v>20</v>
+      </c>
+      <c r="L100" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="M100" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="N100" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="O100" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="P100" s="11" t="s">
         <v>183</v>
@@ -13349,41 +13359,41 @@
       <c r="C101" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="D101" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G101" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="H101" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I101" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="J101" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="K101" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L101" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="M101" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="N101" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="O101" s="6" t="s">
-        <v>59</v>
+      <c r="D101" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H101" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="J101" s="65" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="P101" s="12" t="s">
         <v>55</v>
@@ -13455,7 +13465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F04753-BA12-427E-8473-D726637690A9}">
   <dimension ref="A1:H299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L16" sqref="L16"/>
       <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
@@ -20242,96 +20252,96 @@
   <autoFilter ref="A1:G299" xr:uid="{F5839967-2716-4DDD-A47A-D3C8DFA5C5B1}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A2:A299">
-    <cfRule type="expression" dxfId="83" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="69" stopIfTrue="1">
+      <formula>F2="眼科"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="68" stopIfTrue="1">
+      <formula>F2="神经"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="67" stopIfTrue="1">
+      <formula>F2="代谢"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="66" stopIfTrue="1">
+      <formula>F2="心血管"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="57" stopIfTrue="1">
       <formula>F2="精神"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="58" stopIfTrue="1">
-      <formula>F2="抗生素"</formula>
+    <cfRule type="expression" dxfId="78" priority="65" stopIfTrue="1">
+      <formula>F2="疫苗"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="64" stopIfTrue="1">
+      <formula>F2="抗病毒"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="63" stopIfTrue="1">
+      <formula>F2="B细胞自免"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="62" stopIfTrue="1">
+      <formula>F2="T细胞自免"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="61" stopIfTrue="1">
+      <formula>F2="Th2免疫/呼吸"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="60" stopIfTrue="1">
+      <formula>F2="血液瘤"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="59" stopIfTrue="1">
       <formula>F2="实体瘤"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="60" stopIfTrue="1">
-      <formula>F2="血液瘤"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="61" stopIfTrue="1">
-      <formula>F2="Th2免疫/呼吸"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="62" stopIfTrue="1">
-      <formula>F2="T细胞自免"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="63" stopIfTrue="1">
-      <formula>F2="B细胞自免"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="64" stopIfTrue="1">
-      <formula>F2="抗病毒"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="65" stopIfTrue="1">
-      <formula>F2="疫苗"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="66" stopIfTrue="1">
-      <formula>F2="心血管"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="67" stopIfTrue="1">
-      <formula>F2="代谢"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="68" stopIfTrue="1">
-      <formula>F2="神经"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="69" stopIfTrue="1">
-      <formula>F2="眼科"</formula>
+    <cfRule type="expression" dxfId="71" priority="58" stopIfTrue="1">
+      <formula>F2="抗生素"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="70" priority="70" stopIfTrue="1">
       <formula>F2="罕见病"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B299">
-    <cfRule type="expression" dxfId="69" priority="71" stopIfTrue="1">
-      <formula>F2="精神"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="72" stopIfTrue="1">
-      <formula>F2="抗生素"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="73" stopIfTrue="1">
-      <formula>F2="实体瘤"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="74" stopIfTrue="1">
       <formula>F2="血液瘤"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="75" stopIfTrue="1">
-      <formula>F2="Th2免疫/呼吸"</formula>
+    <cfRule type="expression" dxfId="68" priority="84" stopIfTrue="1">
+      <formula>F2="罕见病"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="76" stopIfTrue="1">
-      <formula>F2="T细胞自免"</formula>
+    <cfRule type="expression" dxfId="67" priority="83" stopIfTrue="1">
+      <formula>F2="眼科"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="77" stopIfTrue="1">
-      <formula>F2="B细胞自免"</formula>
+    <cfRule type="expression" dxfId="66" priority="82" stopIfTrue="1">
+      <formula>F2="神经"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="81" stopIfTrue="1">
+      <formula>F2="代谢"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="80" stopIfTrue="1">
+      <formula>F2="心血管"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="79" stopIfTrue="1">
+      <formula>F2="疫苗"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="62" priority="78" stopIfTrue="1">
       <formula>F2="抗病毒"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="79" stopIfTrue="1">
-      <formula>F2="疫苗"</formula>
+    <cfRule type="expression" dxfId="61" priority="77" stopIfTrue="1">
+      <formula>F2="B细胞自免"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="80" stopIfTrue="1">
-      <formula>F2="心血管"</formula>
+    <cfRule type="expression" dxfId="60" priority="76" stopIfTrue="1">
+      <formula>F2="T细胞自免"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="81" stopIfTrue="1">
-      <formula>F2="代谢"</formula>
+    <cfRule type="expression" dxfId="59" priority="75" stopIfTrue="1">
+      <formula>F2="Th2免疫/呼吸"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="82" stopIfTrue="1">
-      <formula>F2="神经"</formula>
+    <cfRule type="expression" dxfId="58" priority="73" stopIfTrue="1">
+      <formula>F2="实体瘤"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="83" stopIfTrue="1">
-      <formula>F2="眼科"</formula>
+    <cfRule type="expression" dxfId="57" priority="72" stopIfTrue="1">
+      <formula>F2="抗生素"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="84" stopIfTrue="1">
-      <formula>F2="罕见病"</formula>
+    <cfRule type="expression" dxfId="56" priority="71" stopIfTrue="1">
+      <formula>F2="精神"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C299">
-    <cfRule type="expression" dxfId="55" priority="43" stopIfTrue="1">
-      <formula>F2="精神"</formula>
+    <cfRule type="expression" dxfId="55" priority="53" stopIfTrue="1">
+      <formula>F2="代谢"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="54" priority="44" stopIfTrue="1">
       <formula>F2="抗生素"</formula>
@@ -20360,149 +20370,149 @@
     <cfRule type="expression" dxfId="46" priority="52" stopIfTrue="1">
       <formula>F2="心血管"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="53" stopIfTrue="1">
-      <formula>F2="代谢"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="54" stopIfTrue="1">
       <formula>F2="神经"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="55" stopIfTrue="1">
       <formula>F2="眼科"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="56" stopIfTrue="1">
       <formula>F2="罕见病"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
+      <formula>F2="精神"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D299">
-    <cfRule type="expression" dxfId="41" priority="29" stopIfTrue="1">
-      <formula>F2="精神"</formula>
+    <cfRule type="expression" dxfId="41" priority="42" stopIfTrue="1">
+      <formula>F2="罕见病"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="30" stopIfTrue="1">
-      <formula>F2="抗生素"</formula>
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
+      <formula>F2="眼科"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="31" stopIfTrue="1">
-      <formula>F2="实体瘤"</formula>
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
+      <formula>F2="神经"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="32" stopIfTrue="1">
-      <formula>F2="血液瘤"</formula>
+    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
+      <formula>F2="代谢"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="33" stopIfTrue="1">
-      <formula>F2="Th2免疫/呼吸"</formula>
+    <cfRule type="expression" dxfId="37" priority="38" stopIfTrue="1">
+      <formula>F2="心血管"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
-      <formula>F2="T细胞自免"</formula>
+    <cfRule type="expression" dxfId="36" priority="35" stopIfTrue="1">
+      <formula>F2="B细胞自免"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
-      <formula>F2="B细胞自免"</formula>
+    <cfRule type="expression" dxfId="35" priority="37" stopIfTrue="1">
+      <formula>F2="疫苗"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="36" stopIfTrue="1">
       <formula>F2="抗病毒"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="37" stopIfTrue="1">
-      <formula>F2="疫苗"</formula>
+    <cfRule type="expression" dxfId="33" priority="29" stopIfTrue="1">
+      <formula>F2="精神"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="38" stopIfTrue="1">
-      <formula>F2="心血管"</formula>
+    <cfRule type="expression" dxfId="32" priority="30" stopIfTrue="1">
+      <formula>F2="抗生素"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="39" stopIfTrue="1">
-      <formula>F2="代谢"</formula>
+    <cfRule type="expression" dxfId="31" priority="31" stopIfTrue="1">
+      <formula>F2="实体瘤"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="40" stopIfTrue="1">
-      <formula>F2="神经"</formula>
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+      <formula>F2="血液瘤"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="41" stopIfTrue="1">
-      <formula>F2="眼科"</formula>
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
+      <formula>F2="T细胞自免"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="42" stopIfTrue="1">
-      <formula>F2="罕见病"</formula>
+    <cfRule type="expression" dxfId="28" priority="33" stopIfTrue="1">
+      <formula>F2="Th2免疫/呼吸"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E299">
-    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
+      <formula>F2="B细胞自免"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="23" stopIfTrue="1">
+      <formula>F2="疫苗"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="22" stopIfTrue="1">
+      <formula>F2="抗病毒"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="19" stopIfTrue="1">
+      <formula>F2="Th2免疫/呼吸"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
+      <formula>F2="血液瘤"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="17" stopIfTrue="1">
+      <formula>F2="实体瘤"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
+      <formula>F2="抗生素"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="15" stopIfTrue="1">
       <formula>F2="精神"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="16" stopIfTrue="1">
-      <formula>F2="抗生素"</formula>
+    <cfRule type="expression" dxfId="19" priority="28" stopIfTrue="1">
+      <formula>F2="罕见病"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
-      <formula>F2="实体瘤"</formula>
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
+      <formula>F2="眼科"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="18" stopIfTrue="1">
-      <formula>F2="血液瘤"</formula>
+    <cfRule type="expression" dxfId="17" priority="26" stopIfTrue="1">
+      <formula>F2="神经"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="19" stopIfTrue="1">
-      <formula>F2="Th2免疫/呼吸"</formula>
+    <cfRule type="expression" dxfId="16" priority="25" stopIfTrue="1">
+      <formula>F2="代谢"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
       <formula>F2="T细胞自免"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="21" stopIfTrue="1">
-      <formula>F2="B细胞自免"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
-      <formula>F2="抗病毒"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
-      <formula>F2="疫苗"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="24" stopIfTrue="1">
       <formula>F2="心血管"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="25" stopIfTrue="1">
-      <formula>F2="代谢"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="26" stopIfTrue="1">
-      <formula>F2="神经"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
-      <formula>F2="眼科"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28" stopIfTrue="1">
-      <formula>F2="罕见病"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F299">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
-      <formula>F2="精神"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
       <formula>F2="抗生素"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>F2="实体瘤"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>F2="血液瘤"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>F2="Th2免疫/呼吸"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6" stopIfTrue="1">
-      <formula>F2="T细胞自免"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>F2="B细胞自免"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>F2="抗病毒"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
-      <formula>F2="疫苗"</formula>
+    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
+      <formula>F2="神经"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+      <formula>F2="代谢"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>F2="T细胞自免"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
       <formula>F2="心血管"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11" stopIfTrue="1">
-      <formula>F2="代谢"</formula>
+    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
+      <formula>F2="疫苗"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
-      <formula>F2="神经"</formula>
+    <cfRule type="expression" dxfId="2" priority="14" stopIfTrue="1">
+      <formula>F2="罕见病"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>F2="眼科"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
-      <formula>F2="罕见病"</formula>
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>F2="精神"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
